--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/EUR_YCRH_Futures.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/EUR_YCRH_Futures.xlsx
@@ -16,9 +16,6 @@
     <sheet name="3M (2)" sheetId="25" r:id="rId7"/>
     <sheet name="ImmFra6M (2)" sheetId="26" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <definedNames>
     <definedName name="BondBasisDayCounter">'General Settings'!#REF!</definedName>
     <definedName name="Calendar">'General Settings'!#REF!</definedName>
@@ -48,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="27">
   <si>
     <t>Currency</t>
   </si>
@@ -127,6 +124,9 @@
   <si>
     <t>-Mx</t>
   </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
+  </si>
 </sst>
 </file>
 
@@ -140,7 +140,7 @@
     <numFmt numFmtId="168" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
     <numFmt numFmtId="169" formatCode="General_)"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -643,22 +643,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -953,7 +937,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="7" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="7" customWidth="1"/>
@@ -964,13 +948,13 @@
     <col min="7" max="16384" width="8" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13.5" thickBot="1">
+    <row r="1" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="5" customFormat="1" ht="15.75">
+    <row r="2" spans="1:22" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="53" t="s">
         <v>8</v>
@@ -979,14 +963,14 @@
       <c r="D2" s="54"/>
       <c r="E2" s="55"/>
     </row>
-    <row r="3" spans="1:22" s="5" customFormat="1" ht="12.75">
+    <row r="3" spans="1:22" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="15"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="16"/>
     </row>
-    <row r="4" spans="1:22" s="5" customFormat="1" ht="12.75">
+    <row r="4" spans="1:22" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="15"/>
       <c r="C4" s="25" t="s">
@@ -995,7 +979,7 @@
       <c r="D4" s="26"/>
       <c r="E4" s="17"/>
     </row>
-    <row r="5" spans="1:22" s="5" customFormat="1" ht="12.75">
+    <row r="5" spans="1:22" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="15"/>
       <c r="C5" s="25" t="s">
@@ -1006,7 +990,7 @@
       </c>
       <c r="E5" s="17"/>
     </row>
-    <row r="6" spans="1:22" s="5" customFormat="1" ht="12.75">
+    <row r="6" spans="1:22" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="15"/>
       <c r="C6" s="25" t="s">
@@ -1017,7 +1001,7 @@
       </c>
       <c r="E6" s="17"/>
     </row>
-    <row r="7" spans="1:22" s="5" customFormat="1" ht="12.75">
+    <row r="7" spans="1:22" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="15"/>
       <c r="C7" s="25" t="s">
@@ -1028,19 +1012,18 @@
       </c>
       <c r="E7" s="17"/>
     </row>
-    <row r="8" spans="1:22" s="5" customFormat="1" ht="12.75">
+    <row r="8" spans="1:22" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="15"/>
       <c r="C8" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="27" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
+      <c r="D8" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="E8" s="17"/>
     </row>
-    <row r="9" spans="1:22" s="5" customFormat="1" ht="12.75">
+    <row r="9" spans="1:22" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="15"/>
       <c r="C9" s="25" t="s">
@@ -1051,15 +1034,15 @@
       </c>
       <c r="E9" s="17"/>
     </row>
-    <row r="10" spans="1:22" s="5" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:22" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="18"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" spans="1:22" ht="12" thickBot="1"/>
-    <row r="12" spans="1:22" ht="15.75">
+    <row r="11" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="53" t="s">
         <v>19</v>
       </c>
@@ -1070,13 +1053,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="12.75">
+    <row r="13" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="21"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="22"/>
     </row>
-    <row r="14" spans="1:22" ht="12.75">
+    <row r="14" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="21"/>
       <c r="C14" s="29" t="s">
         <v>0</v>
@@ -1089,7 +1072,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="12.75">
+    <row r="15" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="21"/>
       <c r="C15" s="29" t="s">
         <v>20</v>
@@ -1099,7 +1082,7 @@
       </c>
       <c r="E15" s="22"/>
     </row>
-    <row r="16" spans="1:22" ht="12.75">
+    <row r="16" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="21"/>
       <c r="C16" s="29" t="s">
         <v>15</v>
@@ -1109,7 +1092,7 @@
       </c>
       <c r="E16" s="22"/>
     </row>
-    <row r="17" spans="2:5" ht="13.5" thickBot="1">
+    <row r="17" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="23"/>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
@@ -1144,7 +1127,7 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" bestFit="1" customWidth="1"/>
@@ -1158,7 +1141,7 @@
     <col min="11" max="11" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="41"/>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -1176,7 +1159,7 @@
       <c r="J1" s="44"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:12" ht="32.25" customHeight="1">
+    <row r="2" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
       <c r="B2" s="34" t="s">
         <v>1</v>
@@ -1200,17 +1183,17 @@
         <f>$H$1&amp;"_Futures"&amp;$E$1&amp;".xml"</f>
         <v>EUR_YCSTDRH_Futures3M.xml</v>
       </c>
-      <c r="I2" s="38">
+      <c r="I2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>120</v>
+        <v>#NUM!</v>
       </c>
       <c r="J2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(I2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
         <v/>
       </c>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
       <c r="B3" s="30">
         <v>1</v>
@@ -1249,7 +1232,7 @@
       <c r="K3" s="11"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="32">
         <v>2</v>
@@ -1287,7 +1270,7 @@
       <c r="K4" s="11"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="32">
         <v>3</v>
@@ -1325,7 +1308,7 @@
       <c r="K5" s="11"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="45"/>
       <c r="B6" s="32">
         <v>4</v>
@@ -1363,7 +1346,7 @@
       <c r="K6" s="11"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="45"/>
       <c r="B7" s="32">
         <v>5</v>
@@ -1401,7 +1384,7 @@
       <c r="K7" s="11"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="45"/>
       <c r="B8" s="32">
         <v>6</v>
@@ -1439,7 +1422,7 @@
       <c r="K8" s="11"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="45"/>
       <c r="B9" s="32">
         <v>7</v>
@@ -1477,7 +1460,7 @@
       <c r="K9" s="11"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="45"/>
       <c r="B10" s="32">
         <v>8</v>
@@ -1515,7 +1498,7 @@
       <c r="K10" s="11"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="45"/>
       <c r="B11" s="32">
         <v>9</v>
@@ -1553,7 +1536,7 @@
       <c r="K11" s="11"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="45"/>
       <c r="B12" s="32">
         <v>10</v>
@@ -1591,7 +1574,7 @@
       <c r="K12" s="11"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="45"/>
       <c r="B13" s="32">
         <v>11</v>
@@ -1629,7 +1612,7 @@
       <c r="K13" s="11"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="45"/>
       <c r="B14" s="32">
         <v>12</v>
@@ -1667,7 +1650,7 @@
       <c r="K14" s="11"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="45"/>
       <c r="B15" s="32">
         <v>13</v>
@@ -1705,7 +1688,7 @@
       <c r="K15" s="11"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="45"/>
       <c r="B16" s="32">
         <v>14</v>
@@ -1743,7 +1726,7 @@
       <c r="K16" s="11"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="45"/>
       <c r="B17" s="32">
         <v>15</v>
@@ -1781,7 +1764,7 @@
       <c r="K17" s="11"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="45"/>
       <c r="B18" s="32">
         <v>16</v>
@@ -1819,7 +1802,7 @@
       <c r="K18" s="11"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="45"/>
       <c r="B19" s="32">
         <v>17</v>
@@ -1857,7 +1840,7 @@
       <c r="K19" s="11"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="45"/>
       <c r="B20" s="32">
         <v>18</v>
@@ -1895,7 +1878,7 @@
       <c r="K20" s="11"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="45"/>
       <c r="B21" s="32">
         <v>19</v>
@@ -1933,7 +1916,7 @@
       <c r="K21" s="11"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="45"/>
       <c r="B22" s="32">
         <v>20</v>
@@ -1971,7 +1954,7 @@
       <c r="K22" s="11"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="45"/>
       <c r="B23" s="32">
         <v>21</v>
@@ -2009,7 +1992,7 @@
       <c r="K23" s="11"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="45"/>
       <c r="B24" s="32">
         <v>22</v>
@@ -2047,7 +2030,7 @@
       <c r="K24" s="11"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="45"/>
       <c r="B25" s="32">
         <v>23</v>
@@ -2085,7 +2068,7 @@
       <c r="K25" s="11"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="45"/>
       <c r="B26" s="32">
         <v>24</v>
@@ -2123,7 +2106,7 @@
       <c r="K26" s="11"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="45"/>
       <c r="B27" s="32">
         <v>25</v>
@@ -2161,7 +2144,7 @@
       <c r="K27" s="11"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="45"/>
       <c r="B28" s="32">
         <v>26</v>
@@ -2199,7 +2182,7 @@
       <c r="K28" s="11"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="45"/>
       <c r="B29" s="32">
         <v>27</v>
@@ -2237,7 +2220,7 @@
       <c r="K29" s="11"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="45"/>
       <c r="B30" s="32">
         <v>28</v>
@@ -2275,7 +2258,7 @@
       <c r="K30" s="11"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="45"/>
       <c r="B31" s="32">
         <v>29</v>
@@ -2313,7 +2296,7 @@
       <c r="K31" s="11"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="45"/>
       <c r="B32" s="32">
         <v>30</v>
@@ -2351,7 +2334,7 @@
       <c r="K32" s="11"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="45"/>
       <c r="B33" s="32">
         <v>31</v>
@@ -2389,7 +2372,7 @@
       <c r="K33" s="11"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="45"/>
       <c r="B34" s="32">
         <v>32</v>
@@ -2427,7 +2410,7 @@
       <c r="K34" s="11"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="45"/>
       <c r="B35" s="32">
         <v>33</v>
@@ -2465,7 +2448,7 @@
       <c r="K35" s="11"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="45"/>
       <c r="B36" s="32">
         <v>34</v>
@@ -2503,7 +2486,7 @@
       <c r="K36" s="11"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="45"/>
       <c r="B37" s="32">
         <v>35</v>
@@ -2541,7 +2524,7 @@
       <c r="K37" s="11"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="45"/>
       <c r="B38" s="32">
         <v>36</v>
@@ -2579,7 +2562,7 @@
       <c r="K38" s="11"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="45"/>
       <c r="B39" s="32">
         <v>37</v>
@@ -2617,7 +2600,7 @@
       <c r="K39" s="11"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="45"/>
       <c r="B40" s="32">
         <v>38</v>
@@ -2654,7 +2637,7 @@
       </c>
       <c r="K40" s="11"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="45"/>
       <c r="B41" s="32">
         <v>39</v>
@@ -2691,7 +2674,7 @@
       </c>
       <c r="K41" s="11"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="45"/>
       <c r="B42" s="32">
         <v>40</v>
@@ -2728,7 +2711,7 @@
       </c>
       <c r="K42" s="11"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="45"/>
       <c r="B43" s="32">
         <v>41</v>
@@ -2765,7 +2748,7 @@
       </c>
       <c r="K43" s="11"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="45"/>
       <c r="B44" s="32">
         <v>42</v>
@@ -2802,7 +2785,7 @@
       </c>
       <c r="K44" s="11"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="45"/>
       <c r="B45" s="32">
         <v>43</v>
@@ -2839,7 +2822,7 @@
       </c>
       <c r="K45" s="11"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="45"/>
       <c r="B46" s="32">
         <v>44</v>
@@ -2876,7 +2859,7 @@
       </c>
       <c r="K46" s="11"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="45"/>
       <c r="B47" s="32">
         <v>45</v>
@@ -2913,7 +2896,7 @@
       </c>
       <c r="K47" s="11"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="45"/>
       <c r="B48" s="32">
         <v>46</v>
@@ -2950,7 +2933,7 @@
       </c>
       <c r="K48" s="11"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="45"/>
       <c r="B49" s="32">
         <v>47</v>
@@ -2987,7 +2970,7 @@
       </c>
       <c r="K49" s="11"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="45"/>
       <c r="B50" s="32">
         <v>48</v>
@@ -3024,7 +3007,7 @@
       </c>
       <c r="K50" s="11"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="45"/>
       <c r="B51" s="32">
         <v>49</v>
@@ -3061,7 +3044,7 @@
       </c>
       <c r="K51" s="11"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="45"/>
       <c r="B52" s="32">
         <v>50</v>
@@ -3098,7 +3081,7 @@
       </c>
       <c r="K52" s="11"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="45"/>
       <c r="B53" s="32">
         <v>51</v>
@@ -3135,7 +3118,7 @@
       </c>
       <c r="K53" s="11"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="45"/>
       <c r="B54" s="32">
         <v>52</v>
@@ -3172,7 +3155,7 @@
       </c>
       <c r="K54" s="11"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="45"/>
       <c r="B55" s="32">
         <v>53</v>
@@ -3209,7 +3192,7 @@
       </c>
       <c r="K55" s="11"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="45"/>
       <c r="B56" s="32">
         <v>54</v>
@@ -3246,7 +3229,7 @@
       </c>
       <c r="K56" s="11"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="45"/>
       <c r="B57" s="32">
         <v>55</v>
@@ -3283,7 +3266,7 @@
       </c>
       <c r="K57" s="11"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="45"/>
       <c r="B58" s="32">
         <v>56</v>
@@ -3320,7 +3303,7 @@
       </c>
       <c r="K58" s="11"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="45"/>
       <c r="B59" s="32">
         <v>57</v>
@@ -3357,7 +3340,7 @@
       </c>
       <c r="K59" s="11"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="45"/>
       <c r="B60" s="32">
         <v>58</v>
@@ -3394,7 +3377,7 @@
       </c>
       <c r="K60" s="11"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="45"/>
       <c r="B61" s="32">
         <v>59</v>
@@ -3431,7 +3414,7 @@
       </c>
       <c r="K61" s="11"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="45"/>
       <c r="B62" s="32">
         <v>60</v>
@@ -3468,7 +3451,7 @@
       </c>
       <c r="K62" s="11"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="45"/>
       <c r="B63" s="32">
         <v>61</v>
@@ -3505,7 +3488,7 @@
       </c>
       <c r="K63" s="11"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="45"/>
       <c r="B64" s="32">
         <v>62</v>
@@ -3542,7 +3525,7 @@
       </c>
       <c r="K64" s="11"/>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="45"/>
       <c r="B65" s="32">
         <v>63</v>
@@ -3579,7 +3562,7 @@
       </c>
       <c r="K65" s="11"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="45"/>
       <c r="B66" s="32">
         <v>64</v>
@@ -3616,7 +3599,7 @@
       </c>
       <c r="K66" s="11"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="45"/>
       <c r="B67" s="32">
         <v>65</v>
@@ -3653,7 +3636,7 @@
       </c>
       <c r="K67" s="11"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="45"/>
       <c r="B68" s="32">
         <v>66</v>
@@ -3690,7 +3673,7 @@
       </c>
       <c r="K68" s="11"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="45"/>
       <c r="B69" s="32">
         <v>67</v>
@@ -3727,7 +3710,7 @@
       </c>
       <c r="K69" s="11"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="45"/>
       <c r="B70" s="32">
         <v>68</v>
@@ -3764,7 +3747,7 @@
       </c>
       <c r="K70" s="11"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="45"/>
       <c r="B71" s="32">
         <v>69</v>
@@ -3801,7 +3784,7 @@
       </c>
       <c r="K71" s="11"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="45"/>
       <c r="B72" s="32">
         <v>70</v>
@@ -3838,7 +3821,7 @@
       </c>
       <c r="K72" s="11"/>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="45"/>
       <c r="B73" s="32">
         <v>71</v>
@@ -3875,7 +3858,7 @@
       </c>
       <c r="K73" s="11"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="45"/>
       <c r="B74" s="32">
         <v>72</v>
@@ -3912,7 +3895,7 @@
       </c>
       <c r="K74" s="11"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="45"/>
       <c r="B75" s="32">
         <v>73</v>
@@ -3949,7 +3932,7 @@
       </c>
       <c r="K75" s="11"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="45"/>
       <c r="B76" s="32">
         <v>74</v>
@@ -3986,7 +3969,7 @@
       </c>
       <c r="K76" s="11"/>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="45"/>
       <c r="B77" s="32">
         <v>75</v>
@@ -4023,7 +4006,7 @@
       </c>
       <c r="K77" s="11"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="45"/>
       <c r="B78" s="32">
         <v>76</v>
@@ -4060,7 +4043,7 @@
       </c>
       <c r="K78" s="11"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="45"/>
       <c r="B79" s="32">
         <v>77</v>
@@ -4097,7 +4080,7 @@
       </c>
       <c r="K79" s="11"/>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="45"/>
       <c r="B80" s="32">
         <v>78</v>
@@ -4134,7 +4117,7 @@
       </c>
       <c r="K80" s="11"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="45"/>
       <c r="B81" s="32">
         <v>79</v>
@@ -4171,7 +4154,7 @@
       </c>
       <c r="K81" s="11"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="45"/>
       <c r="B82" s="32">
         <v>80</v>
@@ -4208,7 +4191,7 @@
       </c>
       <c r="K82" s="11"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="45"/>
       <c r="B83" s="32">
         <v>81</v>
@@ -4245,7 +4228,7 @@
       </c>
       <c r="K83" s="11"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="45"/>
       <c r="B84" s="32">
         <v>82</v>
@@ -4282,7 +4265,7 @@
       </c>
       <c r="K84" s="11"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="45"/>
       <c r="B85" s="32">
         <v>83</v>
@@ -4319,7 +4302,7 @@
       </c>
       <c r="K85" s="11"/>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="45"/>
       <c r="B86" s="32">
         <v>84</v>
@@ -4356,7 +4339,7 @@
       </c>
       <c r="K86" s="11"/>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="45"/>
       <c r="B87" s="32">
         <v>85</v>
@@ -4393,7 +4376,7 @@
       </c>
       <c r="K87" s="11"/>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="45"/>
       <c r="B88" s="32">
         <v>86</v>
@@ -4430,7 +4413,7 @@
       </c>
       <c r="K88" s="11"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="45"/>
       <c r="B89" s="32">
         <v>87</v>
@@ -4467,7 +4450,7 @@
       </c>
       <c r="K89" s="11"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="45"/>
       <c r="B90" s="32">
         <v>88</v>
@@ -4504,7 +4487,7 @@
       </c>
       <c r="K90" s="11"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="45"/>
       <c r="B91" s="32">
         <v>89</v>
@@ -4541,7 +4524,7 @@
       </c>
       <c r="K91" s="11"/>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="45"/>
       <c r="B92" s="32">
         <v>90</v>
@@ -4578,7 +4561,7 @@
       </c>
       <c r="K92" s="11"/>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="45"/>
       <c r="B93" s="32">
         <v>91</v>
@@ -4615,7 +4598,7 @@
       </c>
       <c r="K93" s="11"/>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="45"/>
       <c r="B94" s="32">
         <v>92</v>
@@ -4652,7 +4635,7 @@
       </c>
       <c r="K94" s="11"/>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="45"/>
       <c r="B95" s="32">
         <v>93</v>
@@ -4689,7 +4672,7 @@
       </c>
       <c r="K95" s="11"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="45"/>
       <c r="B96" s="32">
         <v>94</v>
@@ -4726,7 +4709,7 @@
       </c>
       <c r="K96" s="11"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="45"/>
       <c r="B97" s="32">
         <v>95</v>
@@ -4763,7 +4746,7 @@
       </c>
       <c r="K97" s="11"/>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="45"/>
       <c r="B98" s="32">
         <v>96</v>
@@ -4800,7 +4783,7 @@
       </c>
       <c r="K98" s="11"/>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="45"/>
       <c r="B99" s="32">
         <v>97</v>
@@ -4837,7 +4820,7 @@
       </c>
       <c r="K99" s="11"/>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="45"/>
       <c r="B100" s="32">
         <v>98</v>
@@ -4874,7 +4857,7 @@
       </c>
       <c r="K100" s="11"/>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="45"/>
       <c r="B101" s="32">
         <v>99</v>
@@ -4911,7 +4894,7 @@
       </c>
       <c r="K101" s="11"/>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="45"/>
       <c r="B102" s="32">
         <v>100</v>
@@ -4948,7 +4931,7 @@
       </c>
       <c r="K102" s="11"/>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="45"/>
       <c r="B103" s="32">
         <v>101</v>
@@ -4985,7 +4968,7 @@
       </c>
       <c r="K103" s="11"/>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="45"/>
       <c r="B104" s="32">
         <v>102</v>
@@ -5022,7 +5005,7 @@
       </c>
       <c r="K104" s="11"/>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="45"/>
       <c r="B105" s="32">
         <v>103</v>
@@ -5059,7 +5042,7 @@
       </c>
       <c r="K105" s="11"/>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="45"/>
       <c r="B106" s="32">
         <v>104</v>
@@ -5096,7 +5079,7 @@
       </c>
       <c r="K106" s="11"/>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="45"/>
       <c r="B107" s="32">
         <v>105</v>
@@ -5133,7 +5116,7 @@
       </c>
       <c r="K107" s="11"/>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="45"/>
       <c r="B108" s="32">
         <v>106</v>
@@ -5170,7 +5153,7 @@
       </c>
       <c r="K108" s="11"/>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="45"/>
       <c r="B109" s="32">
         <v>107</v>
@@ -5207,7 +5190,7 @@
       </c>
       <c r="K109" s="11"/>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="45"/>
       <c r="B110" s="32">
         <v>108</v>
@@ -5244,7 +5227,7 @@
       </c>
       <c r="K110" s="11"/>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="45"/>
       <c r="B111" s="32">
         <v>109</v>
@@ -5281,7 +5264,7 @@
       </c>
       <c r="K111" s="11"/>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="45"/>
       <c r="B112" s="32">
         <v>110</v>
@@ -5318,7 +5301,7 @@
       </c>
       <c r="K112" s="11"/>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="45"/>
       <c r="B113" s="32">
         <v>111</v>
@@ -5355,7 +5338,7 @@
       </c>
       <c r="K113" s="11"/>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="45"/>
       <c r="B114" s="32">
         <v>112</v>
@@ -5392,7 +5375,7 @@
       </c>
       <c r="K114" s="11"/>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="45"/>
       <c r="B115" s="32">
         <v>113</v>
@@ -5429,7 +5412,7 @@
       </c>
       <c r="K115" s="11"/>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="45"/>
       <c r="B116" s="32">
         <v>114</v>
@@ -5466,7 +5449,7 @@
       </c>
       <c r="K116" s="11"/>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="45"/>
       <c r="B117" s="32">
         <v>115</v>
@@ -5503,7 +5486,7 @@
       </c>
       <c r="K117" s="11"/>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="45"/>
       <c r="B118" s="32">
         <v>116</v>
@@ -5540,7 +5523,7 @@
       </c>
       <c r="K118" s="11"/>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="45"/>
       <c r="B119" s="32">
         <v>117</v>
@@ -5577,7 +5560,7 @@
       </c>
       <c r="K119" s="11"/>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="45"/>
       <c r="B120" s="32">
         <v>118</v>
@@ -5614,7 +5597,7 @@
       </c>
       <c r="K120" s="11"/>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="45"/>
       <c r="B121" s="32">
         <v>119</v>
@@ -5651,7 +5634,7 @@
       </c>
       <c r="K121" s="11"/>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="45"/>
       <c r="B122" s="32">
         <v>120</v>
@@ -5688,7 +5671,7 @@
       </c>
       <c r="K122" s="11"/>
     </row>
-    <row r="123" spans="1:11" ht="13.5" thickBot="1">
+    <row r="123" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="47"/>
       <c r="B123" s="48"/>
       <c r="C123" s="48"/>
@@ -5718,7 +5701,7 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="40" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" style="40" bestFit="1" customWidth="1"/>
@@ -5734,7 +5717,7 @@
     <col min="12" max="16384" width="9.140625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="41"/>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -5752,7 +5735,7 @@
       <c r="J1" s="44"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:12" ht="32.25" customHeight="1">
+    <row r="2" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
       <c r="B2" s="34" t="s">
         <v>1</v>
@@ -5786,7 +5769,7 @@
       </c>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
       <c r="B3" s="30">
         <v>1</v>
@@ -5825,7 +5808,7 @@
       <c r="K3" s="11"/>
       <c r="L3" s="46"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="32">
         <v>2</v>
@@ -5863,7 +5846,7 @@
       <c r="K4" s="11"/>
       <c r="L4" s="46"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="32">
         <v>3</v>
@@ -5901,7 +5884,7 @@
       <c r="K5" s="11"/>
       <c r="L5" s="46"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="45"/>
       <c r="B6" s="32">
         <v>4</v>
@@ -5939,7 +5922,7 @@
       <c r="K6" s="11"/>
       <c r="L6" s="46"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="45"/>
       <c r="B7" s="32">
         <v>5</v>
@@ -5977,7 +5960,7 @@
       <c r="K7" s="11"/>
       <c r="L7" s="46"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="45"/>
       <c r="B8" s="32">
         <v>6</v>
@@ -6015,7 +5998,7 @@
       <c r="K8" s="11"/>
       <c r="L8" s="46"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="45"/>
       <c r="B9" s="32">
         <v>7</v>
@@ -6053,7 +6036,7 @@
       <c r="K9" s="11"/>
       <c r="L9" s="46"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="45"/>
       <c r="B10" s="32">
         <v>8</v>
@@ -6091,7 +6074,7 @@
       <c r="K10" s="11"/>
       <c r="L10" s="46"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="45"/>
       <c r="B11" s="32">
         <v>9</v>
@@ -6129,7 +6112,7 @@
       <c r="K11" s="11"/>
       <c r="L11" s="46"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="45"/>
       <c r="B12" s="32">
         <v>10</v>
@@ -6167,7 +6150,7 @@
       <c r="K12" s="11"/>
       <c r="L12" s="46"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="45"/>
       <c r="B13" s="32">
         <v>11</v>
@@ -6205,7 +6188,7 @@
       <c r="K13" s="11"/>
       <c r="L13" s="46"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="45"/>
       <c r="B14" s="32">
         <v>12</v>
@@ -6243,7 +6226,7 @@
       <c r="K14" s="11"/>
       <c r="L14" s="46"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="45"/>
       <c r="B15" s="32">
         <v>13</v>
@@ -6281,7 +6264,7 @@
       <c r="K15" s="11"/>
       <c r="L15" s="46"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="45"/>
       <c r="B16" s="32">
         <v>14</v>
@@ -6319,7 +6302,7 @@
       <c r="K16" s="11"/>
       <c r="L16" s="46"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="45"/>
       <c r="B17" s="32">
         <v>15</v>
@@ -6357,7 +6340,7 @@
       <c r="K17" s="11"/>
       <c r="L17" s="46"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="45"/>
       <c r="B18" s="32">
         <v>16</v>
@@ -6395,7 +6378,7 @@
       <c r="K18" s="11"/>
       <c r="L18" s="46"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="45"/>
       <c r="B19" s="32">
         <v>17</v>
@@ -6433,7 +6416,7 @@
       <c r="K19" s="11"/>
       <c r="L19" s="46"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="45"/>
       <c r="B20" s="32">
         <v>18</v>
@@ -6471,7 +6454,7 @@
       <c r="K20" s="11"/>
       <c r="L20" s="46"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="45"/>
       <c r="B21" s="32">
         <v>19</v>
@@ -6509,7 +6492,7 @@
       <c r="K21" s="11"/>
       <c r="L21" s="46"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="45"/>
       <c r="B22" s="32">
         <v>20</v>
@@ -6547,7 +6530,7 @@
       <c r="K22" s="11"/>
       <c r="L22" s="46"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="45"/>
       <c r="B23" s="32">
         <v>21</v>
@@ -6585,7 +6568,7 @@
       <c r="K23" s="11"/>
       <c r="L23" s="46"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="45"/>
       <c r="B24" s="32">
         <v>22</v>
@@ -6623,7 +6606,7 @@
       <c r="K24" s="11"/>
       <c r="L24" s="46"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="45"/>
       <c r="B25" s="32">
         <v>23</v>
@@ -6661,7 +6644,7 @@
       <c r="K25" s="11"/>
       <c r="L25" s="46"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="45"/>
       <c r="B26" s="32">
         <v>24</v>
@@ -6699,7 +6682,7 @@
       <c r="K26" s="11"/>
       <c r="L26" s="46"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="45"/>
       <c r="B27" s="32">
         <v>25</v>
@@ -6737,7 +6720,7 @@
       <c r="K27" s="11"/>
       <c r="L27" s="46"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="45"/>
       <c r="B28" s="32">
         <v>26</v>
@@ -6775,7 +6758,7 @@
       <c r="K28" s="11"/>
       <c r="L28" s="46"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="45"/>
       <c r="B29" s="32">
         <v>27</v>
@@ -6813,7 +6796,7 @@
       <c r="K29" s="11"/>
       <c r="L29" s="46"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="45"/>
       <c r="B30" s="32">
         <v>28</v>
@@ -6851,7 +6834,7 @@
       <c r="K30" s="11"/>
       <c r="L30" s="46"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="45"/>
       <c r="B31" s="32">
         <v>29</v>
@@ -6889,7 +6872,7 @@
       <c r="K31" s="11"/>
       <c r="L31" s="46"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="45"/>
       <c r="B32" s="32">
         <v>30</v>
@@ -6927,7 +6910,7 @@
       <c r="K32" s="11"/>
       <c r="L32" s="46"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="45"/>
       <c r="B33" s="32">
         <v>31</v>
@@ -6965,7 +6948,7 @@
       <c r="K33" s="11"/>
       <c r="L33" s="46"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="45"/>
       <c r="B34" s="32">
         <v>32</v>
@@ -7003,7 +6986,7 @@
       <c r="K34" s="11"/>
       <c r="L34" s="46"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="45"/>
       <c r="B35" s="32">
         <v>33</v>
@@ -7041,7 +7024,7 @@
       <c r="K35" s="11"/>
       <c r="L35" s="46"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="45"/>
       <c r="B36" s="32">
         <v>34</v>
@@ -7079,7 +7062,7 @@
       <c r="K36" s="11"/>
       <c r="L36" s="46"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="45"/>
       <c r="B37" s="32">
         <v>35</v>
@@ -7117,7 +7100,7 @@
       <c r="K37" s="11"/>
       <c r="L37" s="46"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="45"/>
       <c r="B38" s="32">
         <v>36</v>
@@ -7155,7 +7138,7 @@
       <c r="K38" s="11"/>
       <c r="L38" s="46"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="45"/>
       <c r="B39" s="32">
         <v>37</v>
@@ -7193,7 +7176,7 @@
       <c r="K39" s="11"/>
       <c r="L39" s="46"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="45"/>
       <c r="B40" s="32">
         <v>38</v>
@@ -7230,7 +7213,7 @@
       </c>
       <c r="K40" s="11"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="45"/>
       <c r="B41" s="32">
         <v>39</v>
@@ -7267,7 +7250,7 @@
       </c>
       <c r="K41" s="11"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="45"/>
       <c r="B42" s="32">
         <v>40</v>
@@ -7304,7 +7287,7 @@
       </c>
       <c r="K42" s="11"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="45"/>
       <c r="B43" s="32">
         <v>41</v>
@@ -7341,7 +7324,7 @@
       </c>
       <c r="K43" s="11"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="45"/>
       <c r="B44" s="32">
         <v>42</v>
@@ -7378,7 +7361,7 @@
       </c>
       <c r="K44" s="11"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="45"/>
       <c r="B45" s="32">
         <v>43</v>
@@ -7415,7 +7398,7 @@
       </c>
       <c r="K45" s="11"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="45"/>
       <c r="B46" s="32">
         <v>44</v>
@@ -7452,7 +7435,7 @@
       </c>
       <c r="K46" s="11"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="45"/>
       <c r="B47" s="32">
         <v>45</v>
@@ -7489,7 +7472,7 @@
       </c>
       <c r="K47" s="11"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="45"/>
       <c r="B48" s="32">
         <v>46</v>
@@ -7526,7 +7509,7 @@
       </c>
       <c r="K48" s="11"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="45"/>
       <c r="B49" s="32">
         <v>47</v>
@@ -7563,7 +7546,7 @@
       </c>
       <c r="K49" s="11"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="45"/>
       <c r="B50" s="32">
         <v>48</v>
@@ -7600,7 +7583,7 @@
       </c>
       <c r="K50" s="11"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="45"/>
       <c r="B51" s="32">
         <v>49</v>
@@ -7637,7 +7620,7 @@
       </c>
       <c r="K51" s="11"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="45"/>
       <c r="B52" s="32">
         <v>50</v>
@@ -7674,7 +7657,7 @@
       </c>
       <c r="K52" s="11"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="45"/>
       <c r="B53" s="32">
         <v>51</v>
@@ -7711,7 +7694,7 @@
       </c>
       <c r="K53" s="11"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="45"/>
       <c r="B54" s="32">
         <v>52</v>
@@ -7748,7 +7731,7 @@
       </c>
       <c r="K54" s="11"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="45"/>
       <c r="B55" s="32">
         <v>53</v>
@@ -7785,7 +7768,7 @@
       </c>
       <c r="K55" s="11"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="45"/>
       <c r="B56" s="32">
         <v>54</v>
@@ -7822,7 +7805,7 @@
       </c>
       <c r="K56" s="11"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="45"/>
       <c r="B57" s="32">
         <v>55</v>
@@ -7859,7 +7842,7 @@
       </c>
       <c r="K57" s="11"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="45"/>
       <c r="B58" s="32">
         <v>56</v>
@@ -7896,7 +7879,7 @@
       </c>
       <c r="K58" s="11"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="45"/>
       <c r="B59" s="32">
         <v>57</v>
@@ -7933,7 +7916,7 @@
       </c>
       <c r="K59" s="11"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="45"/>
       <c r="B60" s="32">
         <v>58</v>
@@ -7970,7 +7953,7 @@
       </c>
       <c r="K60" s="11"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="45"/>
       <c r="B61" s="32">
         <v>59</v>
@@ -8007,7 +7990,7 @@
       </c>
       <c r="K61" s="11"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="45"/>
       <c r="B62" s="32">
         <v>60</v>
@@ -8044,7 +8027,7 @@
       </c>
       <c r="K62" s="11"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="45"/>
       <c r="B63" s="32">
         <v>61</v>
@@ -8081,7 +8064,7 @@
       </c>
       <c r="K63" s="11"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="45"/>
       <c r="B64" s="32">
         <v>62</v>
@@ -8118,7 +8101,7 @@
       </c>
       <c r="K64" s="11"/>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="45"/>
       <c r="B65" s="32">
         <v>63</v>
@@ -8155,7 +8138,7 @@
       </c>
       <c r="K65" s="11"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="45"/>
       <c r="B66" s="32">
         <v>64</v>
@@ -8192,7 +8175,7 @@
       </c>
       <c r="K66" s="11"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="45"/>
       <c r="B67" s="32">
         <v>65</v>
@@ -8229,7 +8212,7 @@
       </c>
       <c r="K67" s="11"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="45"/>
       <c r="B68" s="32">
         <v>66</v>
@@ -8266,7 +8249,7 @@
       </c>
       <c r="K68" s="11"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="45"/>
       <c r="B69" s="32">
         <v>67</v>
@@ -8303,7 +8286,7 @@
       </c>
       <c r="K69" s="11"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="45"/>
       <c r="B70" s="32">
         <v>68</v>
@@ -8340,7 +8323,7 @@
       </c>
       <c r="K70" s="11"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="45"/>
       <c r="B71" s="32">
         <v>69</v>
@@ -8377,7 +8360,7 @@
       </c>
       <c r="K71" s="11"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="45"/>
       <c r="B72" s="32">
         <v>70</v>
@@ -8414,7 +8397,7 @@
       </c>
       <c r="K72" s="11"/>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="45"/>
       <c r="B73" s="32">
         <v>71</v>
@@ -8451,7 +8434,7 @@
       </c>
       <c r="K73" s="11"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="45"/>
       <c r="B74" s="32">
         <v>72</v>
@@ -8488,7 +8471,7 @@
       </c>
       <c r="K74" s="11"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="45"/>
       <c r="B75" s="32">
         <v>73</v>
@@ -8525,7 +8508,7 @@
       </c>
       <c r="K75" s="11"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="45"/>
       <c r="B76" s="32">
         <v>74</v>
@@ -8562,7 +8545,7 @@
       </c>
       <c r="K76" s="11"/>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="45"/>
       <c r="B77" s="32">
         <v>75</v>
@@ -8599,7 +8582,7 @@
       </c>
       <c r="K77" s="11"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="45"/>
       <c r="B78" s="32">
         <v>76</v>
@@ -8636,7 +8619,7 @@
       </c>
       <c r="K78" s="11"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="45"/>
       <c r="B79" s="32">
         <v>77</v>
@@ -8673,7 +8656,7 @@
       </c>
       <c r="K79" s="11"/>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="45"/>
       <c r="B80" s="32">
         <v>78</v>
@@ -8710,7 +8693,7 @@
       </c>
       <c r="K80" s="11"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="45"/>
       <c r="B81" s="32">
         <v>79</v>
@@ -8747,7 +8730,7 @@
       </c>
       <c r="K81" s="11"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="45"/>
       <c r="B82" s="32">
         <v>80</v>
@@ -8784,7 +8767,7 @@
       </c>
       <c r="K82" s="11"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="45"/>
       <c r="B83" s="32">
         <v>81</v>
@@ -8821,7 +8804,7 @@
       </c>
       <c r="K83" s="11"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="45"/>
       <c r="B84" s="32">
         <v>82</v>
@@ -8858,7 +8841,7 @@
       </c>
       <c r="K84" s="11"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="45"/>
       <c r="B85" s="32">
         <v>83</v>
@@ -8895,7 +8878,7 @@
       </c>
       <c r="K85" s="11"/>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="45"/>
       <c r="B86" s="32">
         <v>84</v>
@@ -8932,7 +8915,7 @@
       </c>
       <c r="K86" s="11"/>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="45"/>
       <c r="B87" s="32">
         <v>85</v>
@@ -8969,7 +8952,7 @@
       </c>
       <c r="K87" s="11"/>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="45"/>
       <c r="B88" s="32">
         <v>86</v>
@@ -9006,7 +8989,7 @@
       </c>
       <c r="K88" s="11"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="45"/>
       <c r="B89" s="32">
         <v>87</v>
@@ -9043,7 +9026,7 @@
       </c>
       <c r="K89" s="11"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="45"/>
       <c r="B90" s="32">
         <v>88</v>
@@ -9080,7 +9063,7 @@
       </c>
       <c r="K90" s="11"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="45"/>
       <c r="B91" s="32">
         <v>89</v>
@@ -9117,7 +9100,7 @@
       </c>
       <c r="K91" s="11"/>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="45"/>
       <c r="B92" s="32">
         <v>90</v>
@@ -9154,7 +9137,7 @@
       </c>
       <c r="K92" s="11"/>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="45"/>
       <c r="B93" s="32">
         <v>91</v>
@@ -9191,7 +9174,7 @@
       </c>
       <c r="K93" s="11"/>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="45"/>
       <c r="B94" s="32">
         <v>92</v>
@@ -9228,7 +9211,7 @@
       </c>
       <c r="K94" s="11"/>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="45"/>
       <c r="B95" s="32">
         <v>93</v>
@@ -9265,7 +9248,7 @@
       </c>
       <c r="K95" s="11"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="45"/>
       <c r="B96" s="32">
         <v>94</v>
@@ -9302,7 +9285,7 @@
       </c>
       <c r="K96" s="11"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="45"/>
       <c r="B97" s="32">
         <v>95</v>
@@ -9339,7 +9322,7 @@
       </c>
       <c r="K97" s="11"/>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="45"/>
       <c r="B98" s="32">
         <v>96</v>
@@ -9376,7 +9359,7 @@
       </c>
       <c r="K98" s="11"/>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="45"/>
       <c r="B99" s="32">
         <v>97</v>
@@ -9413,7 +9396,7 @@
       </c>
       <c r="K99" s="11"/>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="45"/>
       <c r="B100" s="32">
         <v>98</v>
@@ -9450,7 +9433,7 @@
       </c>
       <c r="K100" s="11"/>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="45"/>
       <c r="B101" s="32">
         <v>99</v>
@@ -9487,7 +9470,7 @@
       </c>
       <c r="K101" s="11"/>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="45"/>
       <c r="B102" s="32">
         <v>100</v>
@@ -9524,7 +9507,7 @@
       </c>
       <c r="K102" s="11"/>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="45"/>
       <c r="B103" s="32">
         <v>101</v>
@@ -9561,7 +9544,7 @@
       </c>
       <c r="K103" s="11"/>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="45"/>
       <c r="B104" s="32">
         <v>102</v>
@@ -9598,7 +9581,7 @@
       </c>
       <c r="K104" s="11"/>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="45"/>
       <c r="B105" s="32">
         <v>103</v>
@@ -9635,7 +9618,7 @@
       </c>
       <c r="K105" s="11"/>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="45"/>
       <c r="B106" s="32">
         <v>104</v>
@@ -9672,7 +9655,7 @@
       </c>
       <c r="K106" s="11"/>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="45"/>
       <c r="B107" s="32">
         <v>105</v>
@@ -9709,7 +9692,7 @@
       </c>
       <c r="K107" s="11"/>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="45"/>
       <c r="B108" s="32">
         <v>106</v>
@@ -9746,7 +9729,7 @@
       </c>
       <c r="K108" s="11"/>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="45"/>
       <c r="B109" s="32">
         <v>107</v>
@@ -9783,7 +9766,7 @@
       </c>
       <c r="K109" s="11"/>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="45"/>
       <c r="B110" s="32">
         <v>108</v>
@@ -9820,7 +9803,7 @@
       </c>
       <c r="K110" s="11"/>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="45"/>
       <c r="B111" s="32">
         <v>109</v>
@@ -9857,7 +9840,7 @@
       </c>
       <c r="K111" s="11"/>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="45"/>
       <c r="B112" s="32">
         <v>110</v>
@@ -9894,7 +9877,7 @@
       </c>
       <c r="K112" s="11"/>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="45"/>
       <c r="B113" s="32">
         <v>111</v>
@@ -9931,7 +9914,7 @@
       </c>
       <c r="K113" s="11"/>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="45"/>
       <c r="B114" s="32">
         <v>112</v>
@@ -9968,7 +9951,7 @@
       </c>
       <c r="K114" s="11"/>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="45"/>
       <c r="B115" s="32">
         <v>113</v>
@@ -10005,7 +9988,7 @@
       </c>
       <c r="K115" s="11"/>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="45"/>
       <c r="B116" s="32">
         <v>114</v>
@@ -10042,7 +10025,7 @@
       </c>
       <c r="K116" s="11"/>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="45"/>
       <c r="B117" s="32">
         <v>115</v>
@@ -10079,7 +10062,7 @@
       </c>
       <c r="K117" s="11"/>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="45"/>
       <c r="B118" s="32">
         <v>116</v>
@@ -10116,7 +10099,7 @@
       </c>
       <c r="K118" s="11"/>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="45"/>
       <c r="B119" s="32">
         <v>117</v>
@@ -10153,7 +10136,7 @@
       </c>
       <c r="K119" s="11"/>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="45"/>
       <c r="B120" s="32">
         <v>118</v>
@@ -10190,7 +10173,7 @@
       </c>
       <c r="K120" s="11"/>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="45"/>
       <c r="B121" s="32">
         <v>119</v>
@@ -10227,7 +10210,7 @@
       </c>
       <c r="K121" s="11"/>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="45"/>
       <c r="B122" s="32">
         <v>120</v>
@@ -10264,7 +10247,7 @@
       </c>
       <c r="K122" s="11"/>
     </row>
-    <row r="123" spans="1:11" ht="12" thickBot="1">
+    <row r="123" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="47"/>
       <c r="B123" s="48"/>
       <c r="C123" s="48"/>
@@ -10294,7 +10277,7 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" bestFit="1" customWidth="1"/>
@@ -10308,7 +10291,7 @@
     <col min="11" max="11" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="41"/>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -10326,7 +10309,7 @@
       <c r="J1" s="44"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:12" ht="32.25" customHeight="1">
+    <row r="2" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
       <c r="B2" s="34" t="s">
         <v>1</v>
@@ -10350,17 +10333,17 @@
         <f>$H$1&amp;"_Futures"&amp;$E$1&amp;".xml"</f>
         <v>EUR_YC3MRH_Futures3M.xml</v>
       </c>
-      <c r="I2" s="38">
+      <c r="I2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>120</v>
+        <v>#NUM!</v>
       </c>
       <c r="J2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(I2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
         <v/>
       </c>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
       <c r="B3" s="30">
         <v>1</v>
@@ -10399,7 +10382,7 @@
       <c r="K3" s="11"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="32">
         <v>2</v>
@@ -10437,7 +10420,7 @@
       <c r="K4" s="11"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="32">
         <v>3</v>
@@ -10475,7 +10458,7 @@
       <c r="K5" s="11"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="45"/>
       <c r="B6" s="32">
         <v>4</v>
@@ -10513,7 +10496,7 @@
       <c r="K6" s="11"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="45"/>
       <c r="B7" s="32">
         <v>5</v>
@@ -10551,7 +10534,7 @@
       <c r="K7" s="11"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="45"/>
       <c r="B8" s="32">
         <v>6</v>
@@ -10589,7 +10572,7 @@
       <c r="K8" s="11"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="45"/>
       <c r="B9" s="32">
         <v>7</v>
@@ -10627,7 +10610,7 @@
       <c r="K9" s="11"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="45"/>
       <c r="B10" s="32">
         <v>8</v>
@@ -10665,7 +10648,7 @@
       <c r="K10" s="11"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="45"/>
       <c r="B11" s="32">
         <v>9</v>
@@ -10703,7 +10686,7 @@
       <c r="K11" s="11"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="45"/>
       <c r="B12" s="32">
         <v>10</v>
@@ -10741,7 +10724,7 @@
       <c r="K12" s="11"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="45"/>
       <c r="B13" s="32">
         <v>11</v>
@@ -10779,7 +10762,7 @@
       <c r="K13" s="11"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="45"/>
       <c r="B14" s="32">
         <v>12</v>
@@ -10817,7 +10800,7 @@
       <c r="K14" s="11"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="45"/>
       <c r="B15" s="32">
         <v>13</v>
@@ -10855,7 +10838,7 @@
       <c r="K15" s="11"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="45"/>
       <c r="B16" s="32">
         <v>14</v>
@@ -10893,7 +10876,7 @@
       <c r="K16" s="11"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="45"/>
       <c r="B17" s="32">
         <v>15</v>
@@ -10931,7 +10914,7 @@
       <c r="K17" s="11"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="45"/>
       <c r="B18" s="32">
         <v>16</v>
@@ -10969,7 +10952,7 @@
       <c r="K18" s="11"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="45"/>
       <c r="B19" s="32">
         <v>17</v>
@@ -11007,7 +10990,7 @@
       <c r="K19" s="11"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="45"/>
       <c r="B20" s="32">
         <v>18</v>
@@ -11045,7 +11028,7 @@
       <c r="K20" s="11"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="45"/>
       <c r="B21" s="32">
         <v>19</v>
@@ -11083,7 +11066,7 @@
       <c r="K21" s="11"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="45"/>
       <c r="B22" s="32">
         <v>20</v>
@@ -11121,7 +11104,7 @@
       <c r="K22" s="11"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="45"/>
       <c r="B23" s="32">
         <v>21</v>
@@ -11159,7 +11142,7 @@
       <c r="K23" s="11"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="45"/>
       <c r="B24" s="32">
         <v>22</v>
@@ -11197,7 +11180,7 @@
       <c r="K24" s="11"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="45"/>
       <c r="B25" s="32">
         <v>23</v>
@@ -11235,7 +11218,7 @@
       <c r="K25" s="11"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="45"/>
       <c r="B26" s="32">
         <v>24</v>
@@ -11273,7 +11256,7 @@
       <c r="K26" s="11"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="45"/>
       <c r="B27" s="32">
         <v>25</v>
@@ -11311,7 +11294,7 @@
       <c r="K27" s="11"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="45"/>
       <c r="B28" s="32">
         <v>26</v>
@@ -11349,7 +11332,7 @@
       <c r="K28" s="11"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="45"/>
       <c r="B29" s="32">
         <v>27</v>
@@ -11387,7 +11370,7 @@
       <c r="K29" s="11"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="45"/>
       <c r="B30" s="32">
         <v>28</v>
@@ -11425,7 +11408,7 @@
       <c r="K30" s="11"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="45"/>
       <c r="B31" s="32">
         <v>29</v>
@@ -11463,7 +11446,7 @@
       <c r="K31" s="11"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="45"/>
       <c r="B32" s="32">
         <v>30</v>
@@ -11501,7 +11484,7 @@
       <c r="K32" s="11"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="45"/>
       <c r="B33" s="32">
         <v>31</v>
@@ -11539,7 +11522,7 @@
       <c r="K33" s="11"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="45"/>
       <c r="B34" s="32">
         <v>32</v>
@@ -11577,7 +11560,7 @@
       <c r="K34" s="11"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="45"/>
       <c r="B35" s="32">
         <v>33</v>
@@ -11615,7 +11598,7 @@
       <c r="K35" s="11"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="45"/>
       <c r="B36" s="32">
         <v>34</v>
@@ -11653,7 +11636,7 @@
       <c r="K36" s="11"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="45"/>
       <c r="B37" s="32">
         <v>35</v>
@@ -11691,7 +11674,7 @@
       <c r="K37" s="11"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="45"/>
       <c r="B38" s="32">
         <v>36</v>
@@ -11729,7 +11712,7 @@
       <c r="K38" s="11"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="45"/>
       <c r="B39" s="32">
         <v>37</v>
@@ -11767,7 +11750,7 @@
       <c r="K39" s="11"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="45"/>
       <c r="B40" s="32">
         <v>38</v>
@@ -11804,7 +11787,7 @@
       </c>
       <c r="K40" s="11"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="45"/>
       <c r="B41" s="32">
         <v>39</v>
@@ -11841,7 +11824,7 @@
       </c>
       <c r="K41" s="11"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="45"/>
       <c r="B42" s="32">
         <v>40</v>
@@ -11878,7 +11861,7 @@
       </c>
       <c r="K42" s="11"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="45"/>
       <c r="B43" s="32">
         <v>41</v>
@@ -11915,7 +11898,7 @@
       </c>
       <c r="K43" s="11"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="45"/>
       <c r="B44" s="32">
         <v>42</v>
@@ -11952,7 +11935,7 @@
       </c>
       <c r="K44" s="11"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="45"/>
       <c r="B45" s="32">
         <v>43</v>
@@ -11989,7 +11972,7 @@
       </c>
       <c r="K45" s="11"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="45"/>
       <c r="B46" s="32">
         <v>44</v>
@@ -12026,7 +12009,7 @@
       </c>
       <c r="K46" s="11"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="45"/>
       <c r="B47" s="32">
         <v>45</v>
@@ -12063,7 +12046,7 @@
       </c>
       <c r="K47" s="11"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="45"/>
       <c r="B48" s="32">
         <v>46</v>
@@ -12100,7 +12083,7 @@
       </c>
       <c r="K48" s="11"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="45"/>
       <c r="B49" s="32">
         <v>47</v>
@@ -12137,7 +12120,7 @@
       </c>
       <c r="K49" s="11"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="45"/>
       <c r="B50" s="32">
         <v>48</v>
@@ -12174,7 +12157,7 @@
       </c>
       <c r="K50" s="11"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="45"/>
       <c r="B51" s="32">
         <v>49</v>
@@ -12211,7 +12194,7 @@
       </c>
       <c r="K51" s="11"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="45"/>
       <c r="B52" s="32">
         <v>50</v>
@@ -12248,7 +12231,7 @@
       </c>
       <c r="K52" s="11"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="45"/>
       <c r="B53" s="32">
         <v>51</v>
@@ -12285,7 +12268,7 @@
       </c>
       <c r="K53" s="11"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="45"/>
       <c r="B54" s="32">
         <v>52</v>
@@ -12322,7 +12305,7 @@
       </c>
       <c r="K54" s="11"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="45"/>
       <c r="B55" s="32">
         <v>53</v>
@@ -12359,7 +12342,7 @@
       </c>
       <c r="K55" s="11"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="45"/>
       <c r="B56" s="32">
         <v>54</v>
@@ -12396,7 +12379,7 @@
       </c>
       <c r="K56" s="11"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="45"/>
       <c r="B57" s="32">
         <v>55</v>
@@ -12433,7 +12416,7 @@
       </c>
       <c r="K57" s="11"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="45"/>
       <c r="B58" s="32">
         <v>56</v>
@@ -12470,7 +12453,7 @@
       </c>
       <c r="K58" s="11"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="45"/>
       <c r="B59" s="32">
         <v>57</v>
@@ -12507,7 +12490,7 @@
       </c>
       <c r="K59" s="11"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="45"/>
       <c r="B60" s="32">
         <v>58</v>
@@ -12544,7 +12527,7 @@
       </c>
       <c r="K60" s="11"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="45"/>
       <c r="B61" s="32">
         <v>59</v>
@@ -12581,7 +12564,7 @@
       </c>
       <c r="K61" s="11"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="45"/>
       <c r="B62" s="32">
         <v>60</v>
@@ -12618,7 +12601,7 @@
       </c>
       <c r="K62" s="11"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="45"/>
       <c r="B63" s="32">
         <v>61</v>
@@ -12655,7 +12638,7 @@
       </c>
       <c r="K63" s="11"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="45"/>
       <c r="B64" s="32">
         <v>62</v>
@@ -12692,7 +12675,7 @@
       </c>
       <c r="K64" s="11"/>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="45"/>
       <c r="B65" s="32">
         <v>63</v>
@@ -12729,7 +12712,7 @@
       </c>
       <c r="K65" s="11"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="45"/>
       <c r="B66" s="32">
         <v>64</v>
@@ -12766,7 +12749,7 @@
       </c>
       <c r="K66" s="11"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="45"/>
       <c r="B67" s="32">
         <v>65</v>
@@ -12803,7 +12786,7 @@
       </c>
       <c r="K67" s="11"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="45"/>
       <c r="B68" s="32">
         <v>66</v>
@@ -12840,7 +12823,7 @@
       </c>
       <c r="K68" s="11"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="45"/>
       <c r="B69" s="32">
         <v>67</v>
@@ -12877,7 +12860,7 @@
       </c>
       <c r="K69" s="11"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="45"/>
       <c r="B70" s="32">
         <v>68</v>
@@ -12914,7 +12897,7 @@
       </c>
       <c r="K70" s="11"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="45"/>
       <c r="B71" s="32">
         <v>69</v>
@@ -12951,7 +12934,7 @@
       </c>
       <c r="K71" s="11"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="45"/>
       <c r="B72" s="32">
         <v>70</v>
@@ -12988,7 +12971,7 @@
       </c>
       <c r="K72" s="11"/>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="45"/>
       <c r="B73" s="32">
         <v>71</v>
@@ -13025,7 +13008,7 @@
       </c>
       <c r="K73" s="11"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="45"/>
       <c r="B74" s="32">
         <v>72</v>
@@ -13062,7 +13045,7 @@
       </c>
       <c r="K74" s="11"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="45"/>
       <c r="B75" s="32">
         <v>73</v>
@@ -13099,7 +13082,7 @@
       </c>
       <c r="K75" s="11"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="45"/>
       <c r="B76" s="32">
         <v>74</v>
@@ -13136,7 +13119,7 @@
       </c>
       <c r="K76" s="11"/>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="45"/>
       <c r="B77" s="32">
         <v>75</v>
@@ -13173,7 +13156,7 @@
       </c>
       <c r="K77" s="11"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="45"/>
       <c r="B78" s="32">
         <v>76</v>
@@ -13210,7 +13193,7 @@
       </c>
       <c r="K78" s="11"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="45"/>
       <c r="B79" s="32">
         <v>77</v>
@@ -13247,7 +13230,7 @@
       </c>
       <c r="K79" s="11"/>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="45"/>
       <c r="B80" s="32">
         <v>78</v>
@@ -13284,7 +13267,7 @@
       </c>
       <c r="K80" s="11"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="45"/>
       <c r="B81" s="32">
         <v>79</v>
@@ -13321,7 +13304,7 @@
       </c>
       <c r="K81" s="11"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="45"/>
       <c r="B82" s="32">
         <v>80</v>
@@ -13358,7 +13341,7 @@
       </c>
       <c r="K82" s="11"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="45"/>
       <c r="B83" s="32">
         <v>81</v>
@@ -13395,7 +13378,7 @@
       </c>
       <c r="K83" s="11"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="45"/>
       <c r="B84" s="32">
         <v>82</v>
@@ -13432,7 +13415,7 @@
       </c>
       <c r="K84" s="11"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="45"/>
       <c r="B85" s="32">
         <v>83</v>
@@ -13469,7 +13452,7 @@
       </c>
       <c r="K85" s="11"/>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="45"/>
       <c r="B86" s="32">
         <v>84</v>
@@ -13506,7 +13489,7 @@
       </c>
       <c r="K86" s="11"/>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="45"/>
       <c r="B87" s="32">
         <v>85</v>
@@ -13543,7 +13526,7 @@
       </c>
       <c r="K87" s="11"/>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="45"/>
       <c r="B88" s="32">
         <v>86</v>
@@ -13580,7 +13563,7 @@
       </c>
       <c r="K88" s="11"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="45"/>
       <c r="B89" s="32">
         <v>87</v>
@@ -13617,7 +13600,7 @@
       </c>
       <c r="K89" s="11"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="45"/>
       <c r="B90" s="32">
         <v>88</v>
@@ -13654,7 +13637,7 @@
       </c>
       <c r="K90" s="11"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="45"/>
       <c r="B91" s="32">
         <v>89</v>
@@ -13691,7 +13674,7 @@
       </c>
       <c r="K91" s="11"/>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="45"/>
       <c r="B92" s="32">
         <v>90</v>
@@ -13728,7 +13711,7 @@
       </c>
       <c r="K92" s="11"/>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="45"/>
       <c r="B93" s="32">
         <v>91</v>
@@ -13765,7 +13748,7 @@
       </c>
       <c r="K93" s="11"/>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="45"/>
       <c r="B94" s="32">
         <v>92</v>
@@ -13802,7 +13785,7 @@
       </c>
       <c r="K94" s="11"/>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="45"/>
       <c r="B95" s="32">
         <v>93</v>
@@ -13839,7 +13822,7 @@
       </c>
       <c r="K95" s="11"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="45"/>
       <c r="B96" s="32">
         <v>94</v>
@@ -13876,7 +13859,7 @@
       </c>
       <c r="K96" s="11"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="45"/>
       <c r="B97" s="32">
         <v>95</v>
@@ -13913,7 +13896,7 @@
       </c>
       <c r="K97" s="11"/>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="45"/>
       <c r="B98" s="32">
         <v>96</v>
@@ -13950,7 +13933,7 @@
       </c>
       <c r="K98" s="11"/>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="45"/>
       <c r="B99" s="32">
         <v>97</v>
@@ -13987,7 +13970,7 @@
       </c>
       <c r="K99" s="11"/>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="45"/>
       <c r="B100" s="32">
         <v>98</v>
@@ -14024,7 +14007,7 @@
       </c>
       <c r="K100" s="11"/>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="45"/>
       <c r="B101" s="32">
         <v>99</v>
@@ -14061,7 +14044,7 @@
       </c>
       <c r="K101" s="11"/>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="45"/>
       <c r="B102" s="32">
         <v>100</v>
@@ -14098,7 +14081,7 @@
       </c>
       <c r="K102" s="11"/>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="45"/>
       <c r="B103" s="32">
         <v>101</v>
@@ -14135,7 +14118,7 @@
       </c>
       <c r="K103" s="11"/>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="45"/>
       <c r="B104" s="32">
         <v>102</v>
@@ -14172,7 +14155,7 @@
       </c>
       <c r="K104" s="11"/>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="45"/>
       <c r="B105" s="32">
         <v>103</v>
@@ -14209,7 +14192,7 @@
       </c>
       <c r="K105" s="11"/>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="45"/>
       <c r="B106" s="32">
         <v>104</v>
@@ -14246,7 +14229,7 @@
       </c>
       <c r="K106" s="11"/>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="45"/>
       <c r="B107" s="32">
         <v>105</v>
@@ -14283,7 +14266,7 @@
       </c>
       <c r="K107" s="11"/>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="45"/>
       <c r="B108" s="32">
         <v>106</v>
@@ -14320,7 +14303,7 @@
       </c>
       <c r="K108" s="11"/>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="45"/>
       <c r="B109" s="32">
         <v>107</v>
@@ -14357,7 +14340,7 @@
       </c>
       <c r="K109" s="11"/>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="45"/>
       <c r="B110" s="32">
         <v>108</v>
@@ -14394,7 +14377,7 @@
       </c>
       <c r="K110" s="11"/>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="45"/>
       <c r="B111" s="32">
         <v>109</v>
@@ -14431,7 +14414,7 @@
       </c>
       <c r="K111" s="11"/>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="45"/>
       <c r="B112" s="32">
         <v>110</v>
@@ -14468,7 +14451,7 @@
       </c>
       <c r="K112" s="11"/>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="45"/>
       <c r="B113" s="32">
         <v>111</v>
@@ -14505,7 +14488,7 @@
       </c>
       <c r="K113" s="11"/>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="45"/>
       <c r="B114" s="32">
         <v>112</v>
@@ -14542,7 +14525,7 @@
       </c>
       <c r="K114" s="11"/>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="45"/>
       <c r="B115" s="32">
         <v>113</v>
@@ -14579,7 +14562,7 @@
       </c>
       <c r="K115" s="11"/>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="45"/>
       <c r="B116" s="32">
         <v>114</v>
@@ -14616,7 +14599,7 @@
       </c>
       <c r="K116" s="11"/>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="45"/>
       <c r="B117" s="32">
         <v>115</v>
@@ -14653,7 +14636,7 @@
       </c>
       <c r="K117" s="11"/>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="45"/>
       <c r="B118" s="32">
         <v>116</v>
@@ -14690,7 +14673,7 @@
       </c>
       <c r="K118" s="11"/>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="45"/>
       <c r="B119" s="32">
         <v>117</v>
@@ -14727,7 +14710,7 @@
       </c>
       <c r="K119" s="11"/>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="45"/>
       <c r="B120" s="32">
         <v>118</v>
@@ -14764,7 +14747,7 @@
       </c>
       <c r="K120" s="11"/>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="45"/>
       <c r="B121" s="32">
         <v>119</v>
@@ -14801,7 +14784,7 @@
       </c>
       <c r="K121" s="11"/>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="45"/>
       <c r="B122" s="32">
         <v>120</v>
@@ -14838,7 +14821,7 @@
       </c>
       <c r="K122" s="11"/>
     </row>
-    <row r="123" spans="1:11" ht="13.5" thickBot="1">
+    <row r="123" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="47"/>
       <c r="B123" s="48"/>
       <c r="C123" s="48"/>
@@ -14868,7 +14851,7 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" bestFit="1" customWidth="1"/>
@@ -14881,7 +14864,7 @@
     <col min="10" max="10" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="41"/>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -14900,7 +14883,7 @@
       <c r="I1" s="44"/>
       <c r="J1" s="11"/>
     </row>
-    <row r="2" spans="1:11" ht="32.25" customHeight="1">
+    <row r="2" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
       <c r="B2" s="34" t="s">
         <v>1</v>
@@ -14921,17 +14904,17 @@
         <f>$G$1&amp;"_"&amp;$F$1&amp;$E$1&amp;".xml"</f>
         <v>EUR_YC6MRH_IMMFRA6M.xml</v>
       </c>
-      <c r="H2" s="38">
+      <c r="H2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(H3:H122,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>120</v>
+        <v>#NUM!</v>
       </c>
       <c r="I2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(H2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
         <v/>
       </c>
       <c r="J2" s="11"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
       <c r="B3" s="30">
         <v>1</v>
@@ -14966,7 +14949,7 @@
       <c r="J3" s="11"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="32">
         <v>2</v>
@@ -15000,7 +14983,7 @@
       <c r="J4" s="11"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="32">
         <v>3</v>
@@ -15034,7 +15017,7 @@
       <c r="J5" s="11"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="45"/>
       <c r="B6" s="32">
         <v>4</v>
@@ -15068,7 +15051,7 @@
       <c r="J6" s="11"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="45"/>
       <c r="B7" s="32">
         <v>5</v>
@@ -15102,7 +15085,7 @@
       <c r="J7" s="11"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="45"/>
       <c r="B8" s="32">
         <v>6</v>
@@ -15136,7 +15119,7 @@
       <c r="J8" s="11"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="45"/>
       <c r="B9" s="32">
         <v>7</v>
@@ -15170,7 +15153,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="45"/>
       <c r="B10" s="32">
         <v>8</v>
@@ -15204,7 +15187,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="45"/>
       <c r="B11" s="32">
         <v>9</v>
@@ -15238,7 +15221,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="45"/>
       <c r="B12" s="32">
         <v>10</v>
@@ -15272,7 +15255,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="45"/>
       <c r="B13" s="32">
         <v>11</v>
@@ -15306,7 +15289,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="45"/>
       <c r="B14" s="32">
         <v>12</v>
@@ -15340,7 +15323,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="45"/>
       <c r="B15" s="32">
         <v>13</v>
@@ -15374,7 +15357,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="45"/>
       <c r="B16" s="32">
         <v>14</v>
@@ -15408,7 +15391,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="45"/>
       <c r="B17" s="32">
         <v>15</v>
@@ -15442,7 +15425,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="45"/>
       <c r="B18" s="32">
         <v>16</v>
@@ -15476,7 +15459,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="45"/>
       <c r="B19" s="32">
         <v>17</v>
@@ -15510,7 +15493,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="45"/>
       <c r="B20" s="32">
         <v>18</v>
@@ -15544,7 +15527,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="45"/>
       <c r="B21" s="32">
         <v>19</v>
@@ -15578,7 +15561,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="45"/>
       <c r="B22" s="32">
         <v>20</v>
@@ -15612,7 +15595,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="45"/>
       <c r="B23" s="32">
         <v>21</v>
@@ -15646,7 +15629,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="45"/>
       <c r="B24" s="32">
         <v>22</v>
@@ -15680,7 +15663,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="45"/>
       <c r="B25" s="32">
         <v>23</v>
@@ -15714,7 +15697,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="45"/>
       <c r="B26" s="32">
         <v>24</v>
@@ -15748,7 +15731,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="45"/>
       <c r="B27" s="32">
         <v>25</v>
@@ -15782,7 +15765,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="45"/>
       <c r="B28" s="32">
         <v>26</v>
@@ -15816,7 +15799,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="45"/>
       <c r="B29" s="32">
         <v>27</v>
@@ -15850,7 +15833,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="45"/>
       <c r="B30" s="32">
         <v>28</v>
@@ -15884,7 +15867,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="45"/>
       <c r="B31" s="32">
         <v>29</v>
@@ -15918,7 +15901,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="45"/>
       <c r="B32" s="32">
         <v>30</v>
@@ -15952,7 +15935,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="45"/>
       <c r="B33" s="32">
         <v>31</v>
@@ -15986,7 +15969,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="45"/>
       <c r="B34" s="32">
         <v>32</v>
@@ -16020,7 +16003,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="45"/>
       <c r="B35" s="32">
         <v>33</v>
@@ -16054,7 +16037,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="45"/>
       <c r="B36" s="32">
         <v>34</v>
@@ -16088,7 +16071,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="45"/>
       <c r="B37" s="32">
         <v>35</v>
@@ -16122,7 +16105,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="45"/>
       <c r="B38" s="32">
         <v>36</v>
@@ -16156,7 +16139,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="45"/>
       <c r="B39" s="32">
         <v>37</v>
@@ -16190,7 +16173,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="45"/>
       <c r="B40" s="32">
         <v>38</v>
@@ -16223,7 +16206,7 @@
       </c>
       <c r="J40" s="11"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="45"/>
       <c r="B41" s="32">
         <v>39</v>
@@ -16256,7 +16239,7 @@
       </c>
       <c r="J41" s="11"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="45"/>
       <c r="B42" s="32">
         <v>40</v>
@@ -16289,7 +16272,7 @@
       </c>
       <c r="J42" s="11"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="45"/>
       <c r="B43" s="32">
         <v>41</v>
@@ -16322,7 +16305,7 @@
       </c>
       <c r="J43" s="11"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="45"/>
       <c r="B44" s="32">
         <v>42</v>
@@ -16355,7 +16338,7 @@
       </c>
       <c r="J44" s="11"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="45"/>
       <c r="B45" s="32">
         <v>43</v>
@@ -16388,7 +16371,7 @@
       </c>
       <c r="J45" s="11"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="45"/>
       <c r="B46" s="32">
         <v>44</v>
@@ -16421,7 +16404,7 @@
       </c>
       <c r="J46" s="11"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="45"/>
       <c r="B47" s="32">
         <v>45</v>
@@ -16454,7 +16437,7 @@
       </c>
       <c r="J47" s="11"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="45"/>
       <c r="B48" s="32">
         <v>46</v>
@@ -16487,7 +16470,7 @@
       </c>
       <c r="J48" s="11"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="45"/>
       <c r="B49" s="32">
         <v>47</v>
@@ -16520,7 +16503,7 @@
       </c>
       <c r="J49" s="11"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="45"/>
       <c r="B50" s="32">
         <v>48</v>
@@ -16553,7 +16536,7 @@
       </c>
       <c r="J50" s="11"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="45"/>
       <c r="B51" s="32">
         <v>49</v>
@@ -16586,7 +16569,7 @@
       </c>
       <c r="J51" s="11"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="45"/>
       <c r="B52" s="32">
         <v>50</v>
@@ -16619,7 +16602,7 @@
       </c>
       <c r="J52" s="11"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="45"/>
       <c r="B53" s="32">
         <v>51</v>
@@ -16652,7 +16635,7 @@
       </c>
       <c r="J53" s="11"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="45"/>
       <c r="B54" s="32">
         <v>52</v>
@@ -16685,7 +16668,7 @@
       </c>
       <c r="J54" s="11"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="45"/>
       <c r="B55" s="32">
         <v>53</v>
@@ -16718,7 +16701,7 @@
       </c>
       <c r="J55" s="11"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="45"/>
       <c r="B56" s="32">
         <v>54</v>
@@ -16751,7 +16734,7 @@
       </c>
       <c r="J56" s="11"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="45"/>
       <c r="B57" s="32">
         <v>55</v>
@@ -16784,7 +16767,7 @@
       </c>
       <c r="J57" s="11"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="45"/>
       <c r="B58" s="32">
         <v>56</v>
@@ -16817,7 +16800,7 @@
       </c>
       <c r="J58" s="11"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="45"/>
       <c r="B59" s="32">
         <v>57</v>
@@ -16850,7 +16833,7 @@
       </c>
       <c r="J59" s="11"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="45"/>
       <c r="B60" s="32">
         <v>58</v>
@@ -16883,7 +16866,7 @@
       </c>
       <c r="J60" s="11"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="45"/>
       <c r="B61" s="32">
         <v>59</v>
@@ -16916,7 +16899,7 @@
       </c>
       <c r="J61" s="11"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="45"/>
       <c r="B62" s="32">
         <v>60</v>
@@ -16949,7 +16932,7 @@
       </c>
       <c r="J62" s="11"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="45"/>
       <c r="B63" s="32">
         <v>61</v>
@@ -16982,7 +16965,7 @@
       </c>
       <c r="J63" s="11"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="45"/>
       <c r="B64" s="32">
         <v>62</v>
@@ -17015,7 +16998,7 @@
       </c>
       <c r="J64" s="11"/>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="45"/>
       <c r="B65" s="32">
         <v>63</v>
@@ -17048,7 +17031,7 @@
       </c>
       <c r="J65" s="11"/>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="45"/>
       <c r="B66" s="32">
         <v>64</v>
@@ -17081,7 +17064,7 @@
       </c>
       <c r="J66" s="11"/>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="45"/>
       <c r="B67" s="32">
         <v>65</v>
@@ -17114,7 +17097,7 @@
       </c>
       <c r="J67" s="11"/>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="45"/>
       <c r="B68" s="32">
         <v>66</v>
@@ -17147,7 +17130,7 @@
       </c>
       <c r="J68" s="11"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="45"/>
       <c r="B69" s="32">
         <v>67</v>
@@ -17180,7 +17163,7 @@
       </c>
       <c r="J69" s="11"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="45"/>
       <c r="B70" s="32">
         <v>68</v>
@@ -17213,7 +17196,7 @@
       </c>
       <c r="J70" s="11"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="45"/>
       <c r="B71" s="32">
         <v>69</v>
@@ -17246,7 +17229,7 @@
       </c>
       <c r="J71" s="11"/>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="45"/>
       <c r="B72" s="32">
         <v>70</v>
@@ -17279,7 +17262,7 @@
       </c>
       <c r="J72" s="11"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="45"/>
       <c r="B73" s="32">
         <v>71</v>
@@ -17312,7 +17295,7 @@
       </c>
       <c r="J73" s="11"/>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="45"/>
       <c r="B74" s="32">
         <v>72</v>
@@ -17345,7 +17328,7 @@
       </c>
       <c r="J74" s="11"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="45"/>
       <c r="B75" s="32">
         <v>73</v>
@@ -17378,7 +17361,7 @@
       </c>
       <c r="J75" s="11"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="45"/>
       <c r="B76" s="32">
         <v>74</v>
@@ -17411,7 +17394,7 @@
       </c>
       <c r="J76" s="11"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="45"/>
       <c r="B77" s="32">
         <v>75</v>
@@ -17444,7 +17427,7 @@
       </c>
       <c r="J77" s="11"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="45"/>
       <c r="B78" s="32">
         <v>76</v>
@@ -17477,7 +17460,7 @@
       </c>
       <c r="J78" s="11"/>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="45"/>
       <c r="B79" s="32">
         <v>77</v>
@@ -17510,7 +17493,7 @@
       </c>
       <c r="J79" s="11"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="45"/>
       <c r="B80" s="32">
         <v>78</v>
@@ -17543,7 +17526,7 @@
       </c>
       <c r="J80" s="11"/>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="45"/>
       <c r="B81" s="32">
         <v>79</v>
@@ -17576,7 +17559,7 @@
       </c>
       <c r="J81" s="11"/>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="45"/>
       <c r="B82" s="32">
         <v>80</v>
@@ -17609,7 +17592,7 @@
       </c>
       <c r="J82" s="11"/>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="45"/>
       <c r="B83" s="32">
         <v>81</v>
@@ -17642,7 +17625,7 @@
       </c>
       <c r="J83" s="11"/>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="45"/>
       <c r="B84" s="32">
         <v>82</v>
@@ -17675,7 +17658,7 @@
       </c>
       <c r="J84" s="11"/>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="45"/>
       <c r="B85" s="32">
         <v>83</v>
@@ -17708,7 +17691,7 @@
       </c>
       <c r="J85" s="11"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="45"/>
       <c r="B86" s="32">
         <v>84</v>
@@ -17741,7 +17724,7 @@
       </c>
       <c r="J86" s="11"/>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="45"/>
       <c r="B87" s="32">
         <v>85</v>
@@ -17774,7 +17757,7 @@
       </c>
       <c r="J87" s="11"/>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="45"/>
       <c r="B88" s="32">
         <v>86</v>
@@ -17807,7 +17790,7 @@
       </c>
       <c r="J88" s="11"/>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="45"/>
       <c r="B89" s="32">
         <v>87</v>
@@ -17840,7 +17823,7 @@
       </c>
       <c r="J89" s="11"/>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="45"/>
       <c r="B90" s="32">
         <v>88</v>
@@ -17873,7 +17856,7 @@
       </c>
       <c r="J90" s="11"/>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="45"/>
       <c r="B91" s="32">
         <v>89</v>
@@ -17906,7 +17889,7 @@
       </c>
       <c r="J91" s="11"/>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="45"/>
       <c r="B92" s="32">
         <v>90</v>
@@ -17939,7 +17922,7 @@
       </c>
       <c r="J92" s="11"/>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="45"/>
       <c r="B93" s="32">
         <v>91</v>
@@ -17972,7 +17955,7 @@
       </c>
       <c r="J93" s="11"/>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="45"/>
       <c r="B94" s="32">
         <v>92</v>
@@ -18005,7 +17988,7 @@
       </c>
       <c r="J94" s="11"/>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="45"/>
       <c r="B95" s="32">
         <v>93</v>
@@ -18038,7 +18021,7 @@
       </c>
       <c r="J95" s="11"/>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="45"/>
       <c r="B96" s="32">
         <v>94</v>
@@ -18071,7 +18054,7 @@
       </c>
       <c r="J96" s="11"/>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="45"/>
       <c r="B97" s="32">
         <v>95</v>
@@ -18104,7 +18087,7 @@
       </c>
       <c r="J97" s="11"/>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="45"/>
       <c r="B98" s="32">
         <v>96</v>
@@ -18137,7 +18120,7 @@
       </c>
       <c r="J98" s="11"/>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="45"/>
       <c r="B99" s="32">
         <v>97</v>
@@ -18170,7 +18153,7 @@
       </c>
       <c r="J99" s="11"/>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="45"/>
       <c r="B100" s="32">
         <v>98</v>
@@ -18203,7 +18186,7 @@
       </c>
       <c r="J100" s="11"/>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="45"/>
       <c r="B101" s="32">
         <v>99</v>
@@ -18236,7 +18219,7 @@
       </c>
       <c r="J101" s="11"/>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="45"/>
       <c r="B102" s="32">
         <v>100</v>
@@ -18269,7 +18252,7 @@
       </c>
       <c r="J102" s="11"/>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="45"/>
       <c r="B103" s="32">
         <v>101</v>
@@ -18302,7 +18285,7 @@
       </c>
       <c r="J103" s="11"/>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="45"/>
       <c r="B104" s="32">
         <v>102</v>
@@ -18335,7 +18318,7 @@
       </c>
       <c r="J104" s="11"/>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="45"/>
       <c r="B105" s="32">
         <v>103</v>
@@ -18368,7 +18351,7 @@
       </c>
       <c r="J105" s="11"/>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="45"/>
       <c r="B106" s="32">
         <v>104</v>
@@ -18401,7 +18384,7 @@
       </c>
       <c r="J106" s="11"/>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="45"/>
       <c r="B107" s="32">
         <v>105</v>
@@ -18434,7 +18417,7 @@
       </c>
       <c r="J107" s="11"/>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="45"/>
       <c r="B108" s="32">
         <v>106</v>
@@ -18467,7 +18450,7 @@
       </c>
       <c r="J108" s="11"/>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="45"/>
       <c r="B109" s="32">
         <v>107</v>
@@ -18500,7 +18483,7 @@
       </c>
       <c r="J109" s="11"/>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="45"/>
       <c r="B110" s="32">
         <v>108</v>
@@ -18533,7 +18516,7 @@
       </c>
       <c r="J110" s="11"/>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="45"/>
       <c r="B111" s="32">
         <v>109</v>
@@ -18566,7 +18549,7 @@
       </c>
       <c r="J111" s="11"/>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="45"/>
       <c r="B112" s="32">
         <v>110</v>
@@ -18599,7 +18582,7 @@
       </c>
       <c r="J112" s="11"/>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="45"/>
       <c r="B113" s="32">
         <v>111</v>
@@ -18632,7 +18615,7 @@
       </c>
       <c r="J113" s="11"/>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="45"/>
       <c r="B114" s="32">
         <v>112</v>
@@ -18665,7 +18648,7 @@
       </c>
       <c r="J114" s="11"/>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="45"/>
       <c r="B115" s="32">
         <v>113</v>
@@ -18698,7 +18681,7 @@
       </c>
       <c r="J115" s="11"/>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="45"/>
       <c r="B116" s="32">
         <v>114</v>
@@ -18731,7 +18714,7 @@
       </c>
       <c r="J116" s="11"/>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="45"/>
       <c r="B117" s="32">
         <v>115</v>
@@ -18764,7 +18747,7 @@
       </c>
       <c r="J117" s="11"/>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="45"/>
       <c r="B118" s="32">
         <v>116</v>
@@ -18797,7 +18780,7 @@
       </c>
       <c r="J118" s="11"/>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="45"/>
       <c r="B119" s="32">
         <v>117</v>
@@ -18830,7 +18813,7 @@
       </c>
       <c r="J119" s="11"/>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="45"/>
       <c r="B120" s="32">
         <v>118</v>
@@ -18863,7 +18846,7 @@
       </c>
       <c r="J120" s="11"/>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="45"/>
       <c r="B121" s="32">
         <v>119</v>
@@ -18896,7 +18879,7 @@
       </c>
       <c r="J121" s="11"/>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="45"/>
       <c r="B122" s="32">
         <v>120</v>
@@ -18929,7 +18912,7 @@
       </c>
       <c r="J122" s="11"/>
     </row>
-    <row r="123" spans="1:10" ht="13.5" thickBot="1">
+    <row r="123" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="47"/>
       <c r="B123" s="48"/>
       <c r="C123" s="48"/>
@@ -18958,7 +18941,7 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="40" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" style="40" bestFit="1" customWidth="1"/>
@@ -18974,7 +18957,7 @@
     <col min="12" max="16384" width="9.140625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="41"/>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -18994,7 +18977,7 @@
       <c r="J1" s="44"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:12" ht="32.25" customHeight="1">
+    <row r="2" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
       <c r="B2" s="34" t="s">
         <v>1</v>
@@ -19028,7 +19011,7 @@
       </c>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
       <c r="B3" s="30">
         <v>1</v>
@@ -19067,7 +19050,7 @@
       <c r="K3" s="11"/>
       <c r="L3" s="46"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="32">
         <v>2</v>
@@ -19105,7 +19088,7 @@
       <c r="K4" s="11"/>
       <c r="L4" s="46"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="32">
         <v>3</v>
@@ -19143,7 +19126,7 @@
       <c r="K5" s="11"/>
       <c r="L5" s="46"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="45"/>
       <c r="B6" s="32">
         <v>4</v>
@@ -19181,7 +19164,7 @@
       <c r="K6" s="11"/>
       <c r="L6" s="46"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="45"/>
       <c r="B7" s="32">
         <v>5</v>
@@ -19219,7 +19202,7 @@
       <c r="K7" s="11"/>
       <c r="L7" s="46"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="45"/>
       <c r="B8" s="32">
         <v>6</v>
@@ -19257,7 +19240,7 @@
       <c r="K8" s="11"/>
       <c r="L8" s="46"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="45"/>
       <c r="B9" s="32">
         <v>7</v>
@@ -19295,7 +19278,7 @@
       <c r="K9" s="11"/>
       <c r="L9" s="46"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="45"/>
       <c r="B10" s="32">
         <v>8</v>
@@ -19333,7 +19316,7 @@
       <c r="K10" s="11"/>
       <c r="L10" s="46"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="45"/>
       <c r="B11" s="32">
         <v>9</v>
@@ -19371,7 +19354,7 @@
       <c r="K11" s="11"/>
       <c r="L11" s="46"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="45"/>
       <c r="B12" s="32">
         <v>10</v>
@@ -19409,7 +19392,7 @@
       <c r="K12" s="11"/>
       <c r="L12" s="46"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="45"/>
       <c r="B13" s="32">
         <v>11</v>
@@ -19447,7 +19430,7 @@
       <c r="K13" s="11"/>
       <c r="L13" s="46"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="45"/>
       <c r="B14" s="32">
         <v>12</v>
@@ -19485,7 +19468,7 @@
       <c r="K14" s="11"/>
       <c r="L14" s="46"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="45"/>
       <c r="B15" s="32">
         <v>13</v>
@@ -19523,7 +19506,7 @@
       <c r="K15" s="11"/>
       <c r="L15" s="46"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="45"/>
       <c r="B16" s="32">
         <v>14</v>
@@ -19561,7 +19544,7 @@
       <c r="K16" s="11"/>
       <c r="L16" s="46"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="45"/>
       <c r="B17" s="32">
         <v>15</v>
@@ -19599,7 +19582,7 @@
       <c r="K17" s="11"/>
       <c r="L17" s="46"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="45"/>
       <c r="B18" s="32">
         <v>16</v>
@@ -19637,7 +19620,7 @@
       <c r="K18" s="11"/>
       <c r="L18" s="46"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="45"/>
       <c r="B19" s="32">
         <v>17</v>
@@ -19675,7 +19658,7 @@
       <c r="K19" s="11"/>
       <c r="L19" s="46"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="45"/>
       <c r="B20" s="32">
         <v>18</v>
@@ -19713,7 +19696,7 @@
       <c r="K20" s="11"/>
       <c r="L20" s="46"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="45"/>
       <c r="B21" s="32">
         <v>19</v>
@@ -19751,7 +19734,7 @@
       <c r="K21" s="11"/>
       <c r="L21" s="46"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="45"/>
       <c r="B22" s="32">
         <v>20</v>
@@ -19789,7 +19772,7 @@
       <c r="K22" s="11"/>
       <c r="L22" s="46"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="45"/>
       <c r="B23" s="32">
         <v>21</v>
@@ -19827,7 +19810,7 @@
       <c r="K23" s="11"/>
       <c r="L23" s="46"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="45"/>
       <c r="B24" s="32">
         <v>22</v>
@@ -19865,7 +19848,7 @@
       <c r="K24" s="11"/>
       <c r="L24" s="46"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="45"/>
       <c r="B25" s="32">
         <v>23</v>
@@ -19903,7 +19886,7 @@
       <c r="K25" s="11"/>
       <c r="L25" s="46"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="45"/>
       <c r="B26" s="32">
         <v>24</v>
@@ -19941,7 +19924,7 @@
       <c r="K26" s="11"/>
       <c r="L26" s="46"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="45"/>
       <c r="B27" s="32">
         <v>25</v>
@@ -19979,7 +19962,7 @@
       <c r="K27" s="11"/>
       <c r="L27" s="46"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="45"/>
       <c r="B28" s="32">
         <v>26</v>
@@ -20017,7 +20000,7 @@
       <c r="K28" s="11"/>
       <c r="L28" s="46"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="45"/>
       <c r="B29" s="32">
         <v>27</v>
@@ -20055,7 +20038,7 @@
       <c r="K29" s="11"/>
       <c r="L29" s="46"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="45"/>
       <c r="B30" s="32">
         <v>28</v>
@@ -20093,7 +20076,7 @@
       <c r="K30" s="11"/>
       <c r="L30" s="46"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="45"/>
       <c r="B31" s="32">
         <v>29</v>
@@ -20131,7 +20114,7 @@
       <c r="K31" s="11"/>
       <c r="L31" s="46"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="45"/>
       <c r="B32" s="32">
         <v>30</v>
@@ -20169,7 +20152,7 @@
       <c r="K32" s="11"/>
       <c r="L32" s="46"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="45"/>
       <c r="B33" s="32">
         <v>31</v>
@@ -20207,7 +20190,7 @@
       <c r="K33" s="11"/>
       <c r="L33" s="46"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="45"/>
       <c r="B34" s="32">
         <v>32</v>
@@ -20245,7 +20228,7 @@
       <c r="K34" s="11"/>
       <c r="L34" s="46"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="45"/>
       <c r="B35" s="32">
         <v>33</v>
@@ -20283,7 +20266,7 @@
       <c r="K35" s="11"/>
       <c r="L35" s="46"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="45"/>
       <c r="B36" s="32">
         <v>34</v>
@@ -20321,7 +20304,7 @@
       <c r="K36" s="11"/>
       <c r="L36" s="46"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="45"/>
       <c r="B37" s="32">
         <v>35</v>
@@ -20359,7 +20342,7 @@
       <c r="K37" s="11"/>
       <c r="L37" s="46"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="45"/>
       <c r="B38" s="32">
         <v>36</v>
@@ -20397,7 +20380,7 @@
       <c r="K38" s="11"/>
       <c r="L38" s="46"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="45"/>
       <c r="B39" s="32">
         <v>37</v>
@@ -20435,7 +20418,7 @@
       <c r="K39" s="11"/>
       <c r="L39" s="46"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="45"/>
       <c r="B40" s="32">
         <v>38</v>
@@ -20472,7 +20455,7 @@
       </c>
       <c r="K40" s="11"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="45"/>
       <c r="B41" s="32">
         <v>39</v>
@@ -20509,7 +20492,7 @@
       </c>
       <c r="K41" s="11"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="45"/>
       <c r="B42" s="32">
         <v>40</v>
@@ -20546,7 +20529,7 @@
       </c>
       <c r="K42" s="11"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="45"/>
       <c r="B43" s="32">
         <v>41</v>
@@ -20583,7 +20566,7 @@
       </c>
       <c r="K43" s="11"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="45"/>
       <c r="B44" s="32">
         <v>42</v>
@@ -20620,7 +20603,7 @@
       </c>
       <c r="K44" s="11"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="45"/>
       <c r="B45" s="32">
         <v>43</v>
@@ -20657,7 +20640,7 @@
       </c>
       <c r="K45" s="11"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="45"/>
       <c r="B46" s="32">
         <v>44</v>
@@ -20694,7 +20677,7 @@
       </c>
       <c r="K46" s="11"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="45"/>
       <c r="B47" s="32">
         <v>45</v>
@@ -20731,7 +20714,7 @@
       </c>
       <c r="K47" s="11"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="45"/>
       <c r="B48" s="32">
         <v>46</v>
@@ -20768,7 +20751,7 @@
       </c>
       <c r="K48" s="11"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="45"/>
       <c r="B49" s="32">
         <v>47</v>
@@ -20805,7 +20788,7 @@
       </c>
       <c r="K49" s="11"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="45"/>
       <c r="B50" s="32">
         <v>48</v>
@@ -20842,7 +20825,7 @@
       </c>
       <c r="K50" s="11"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="45"/>
       <c r="B51" s="32">
         <v>49</v>
@@ -20879,7 +20862,7 @@
       </c>
       <c r="K51" s="11"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="45"/>
       <c r="B52" s="32">
         <v>50</v>
@@ -20916,7 +20899,7 @@
       </c>
       <c r="K52" s="11"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="45"/>
       <c r="B53" s="32">
         <v>51</v>
@@ -20953,7 +20936,7 @@
       </c>
       <c r="K53" s="11"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="45"/>
       <c r="B54" s="32">
         <v>52</v>
@@ -20990,7 +20973,7 @@
       </c>
       <c r="K54" s="11"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="45"/>
       <c r="B55" s="32">
         <v>53</v>
@@ -21027,7 +21010,7 @@
       </c>
       <c r="K55" s="11"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="45"/>
       <c r="B56" s="32">
         <v>54</v>
@@ -21064,7 +21047,7 @@
       </c>
       <c r="K56" s="11"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="45"/>
       <c r="B57" s="32">
         <v>55</v>
@@ -21101,7 +21084,7 @@
       </c>
       <c r="K57" s="11"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="45"/>
       <c r="B58" s="32">
         <v>56</v>
@@ -21138,7 +21121,7 @@
       </c>
       <c r="K58" s="11"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="45"/>
       <c r="B59" s="32">
         <v>57</v>
@@ -21175,7 +21158,7 @@
       </c>
       <c r="K59" s="11"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="45"/>
       <c r="B60" s="32">
         <v>58</v>
@@ -21212,7 +21195,7 @@
       </c>
       <c r="K60" s="11"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="45"/>
       <c r="B61" s="32">
         <v>59</v>
@@ -21249,7 +21232,7 @@
       </c>
       <c r="K61" s="11"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="45"/>
       <c r="B62" s="32">
         <v>60</v>
@@ -21286,7 +21269,7 @@
       </c>
       <c r="K62" s="11"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="45"/>
       <c r="B63" s="32">
         <v>61</v>
@@ -21323,7 +21306,7 @@
       </c>
       <c r="K63" s="11"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="45"/>
       <c r="B64" s="32">
         <v>62</v>
@@ -21360,7 +21343,7 @@
       </c>
       <c r="K64" s="11"/>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="45"/>
       <c r="B65" s="32">
         <v>63</v>
@@ -21397,7 +21380,7 @@
       </c>
       <c r="K65" s="11"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="45"/>
       <c r="B66" s="32">
         <v>64</v>
@@ -21434,7 +21417,7 @@
       </c>
       <c r="K66" s="11"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="45"/>
       <c r="B67" s="32">
         <v>65</v>
@@ -21471,7 +21454,7 @@
       </c>
       <c r="K67" s="11"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="45"/>
       <c r="B68" s="32">
         <v>66</v>
@@ -21508,7 +21491,7 @@
       </c>
       <c r="K68" s="11"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="45"/>
       <c r="B69" s="32">
         <v>67</v>
@@ -21545,7 +21528,7 @@
       </c>
       <c r="K69" s="11"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="45"/>
       <c r="B70" s="32">
         <v>68</v>
@@ -21582,7 +21565,7 @@
       </c>
       <c r="K70" s="11"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="45"/>
       <c r="B71" s="32">
         <v>69</v>
@@ -21619,7 +21602,7 @@
       </c>
       <c r="K71" s="11"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="45"/>
       <c r="B72" s="32">
         <v>70</v>
@@ -21656,7 +21639,7 @@
       </c>
       <c r="K72" s="11"/>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="45"/>
       <c r="B73" s="32">
         <v>71</v>
@@ -21693,7 +21676,7 @@
       </c>
       <c r="K73" s="11"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="45"/>
       <c r="B74" s="32">
         <v>72</v>
@@ -21730,7 +21713,7 @@
       </c>
       <c r="K74" s="11"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="45"/>
       <c r="B75" s="32">
         <v>73</v>
@@ -21767,7 +21750,7 @@
       </c>
       <c r="K75" s="11"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="45"/>
       <c r="B76" s="32">
         <v>74</v>
@@ -21804,7 +21787,7 @@
       </c>
       <c r="K76" s="11"/>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="45"/>
       <c r="B77" s="32">
         <v>75</v>
@@ -21841,7 +21824,7 @@
       </c>
       <c r="K77" s="11"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="45"/>
       <c r="B78" s="32">
         <v>76</v>
@@ -21878,7 +21861,7 @@
       </c>
       <c r="K78" s="11"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="45"/>
       <c r="B79" s="32">
         <v>77</v>
@@ -21915,7 +21898,7 @@
       </c>
       <c r="K79" s="11"/>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="45"/>
       <c r="B80" s="32">
         <v>78</v>
@@ -21952,7 +21935,7 @@
       </c>
       <c r="K80" s="11"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="45"/>
       <c r="B81" s="32">
         <v>79</v>
@@ -21989,7 +21972,7 @@
       </c>
       <c r="K81" s="11"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="45"/>
       <c r="B82" s="32">
         <v>80</v>
@@ -22026,7 +22009,7 @@
       </c>
       <c r="K82" s="11"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="45"/>
       <c r="B83" s="32">
         <v>81</v>
@@ -22063,7 +22046,7 @@
       </c>
       <c r="K83" s="11"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="45"/>
       <c r="B84" s="32">
         <v>82</v>
@@ -22100,7 +22083,7 @@
       </c>
       <c r="K84" s="11"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="45"/>
       <c r="B85" s="32">
         <v>83</v>
@@ -22137,7 +22120,7 @@
       </c>
       <c r="K85" s="11"/>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="45"/>
       <c r="B86" s="32">
         <v>84</v>
@@ -22174,7 +22157,7 @@
       </c>
       <c r="K86" s="11"/>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="45"/>
       <c r="B87" s="32">
         <v>85</v>
@@ -22211,7 +22194,7 @@
       </c>
       <c r="K87" s="11"/>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="45"/>
       <c r="B88" s="32">
         <v>86</v>
@@ -22248,7 +22231,7 @@
       </c>
       <c r="K88" s="11"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="45"/>
       <c r="B89" s="32">
         <v>87</v>
@@ -22285,7 +22268,7 @@
       </c>
       <c r="K89" s="11"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="45"/>
       <c r="B90" s="32">
         <v>88</v>
@@ -22322,7 +22305,7 @@
       </c>
       <c r="K90" s="11"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="45"/>
       <c r="B91" s="32">
         <v>89</v>
@@ -22359,7 +22342,7 @@
       </c>
       <c r="K91" s="11"/>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="45"/>
       <c r="B92" s="32">
         <v>90</v>
@@ -22396,7 +22379,7 @@
       </c>
       <c r="K92" s="11"/>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="45"/>
       <c r="B93" s="32">
         <v>91</v>
@@ -22433,7 +22416,7 @@
       </c>
       <c r="K93" s="11"/>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="45"/>
       <c r="B94" s="32">
         <v>92</v>
@@ -22470,7 +22453,7 @@
       </c>
       <c r="K94" s="11"/>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="45"/>
       <c r="B95" s="32">
         <v>93</v>
@@ -22507,7 +22490,7 @@
       </c>
       <c r="K95" s="11"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="45"/>
       <c r="B96" s="32">
         <v>94</v>
@@ -22544,7 +22527,7 @@
       </c>
       <c r="K96" s="11"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="45"/>
       <c r="B97" s="32">
         <v>95</v>
@@ -22581,7 +22564,7 @@
       </c>
       <c r="K97" s="11"/>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="45"/>
       <c r="B98" s="32">
         <v>96</v>
@@ -22618,7 +22601,7 @@
       </c>
       <c r="K98" s="11"/>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="45"/>
       <c r="B99" s="32">
         <v>97</v>
@@ -22655,7 +22638,7 @@
       </c>
       <c r="K99" s="11"/>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="45"/>
       <c r="B100" s="32">
         <v>98</v>
@@ -22692,7 +22675,7 @@
       </c>
       <c r="K100" s="11"/>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="45"/>
       <c r="B101" s="32">
         <v>99</v>
@@ -22729,7 +22712,7 @@
       </c>
       <c r="K101" s="11"/>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="45"/>
       <c r="B102" s="32">
         <v>100</v>
@@ -22766,7 +22749,7 @@
       </c>
       <c r="K102" s="11"/>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="45"/>
       <c r="B103" s="32">
         <v>101</v>
@@ -22803,7 +22786,7 @@
       </c>
       <c r="K103" s="11"/>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="45"/>
       <c r="B104" s="32">
         <v>102</v>
@@ -22840,7 +22823,7 @@
       </c>
       <c r="K104" s="11"/>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="45"/>
       <c r="B105" s="32">
         <v>103</v>
@@ -22877,7 +22860,7 @@
       </c>
       <c r="K105" s="11"/>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="45"/>
       <c r="B106" s="32">
         <v>104</v>
@@ -22914,7 +22897,7 @@
       </c>
       <c r="K106" s="11"/>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="45"/>
       <c r="B107" s="32">
         <v>105</v>
@@ -22951,7 +22934,7 @@
       </c>
       <c r="K107" s="11"/>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="45"/>
       <c r="B108" s="32">
         <v>106</v>
@@ -22988,7 +22971,7 @@
       </c>
       <c r="K108" s="11"/>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="45"/>
       <c r="B109" s="32">
         <v>107</v>
@@ -23025,7 +23008,7 @@
       </c>
       <c r="K109" s="11"/>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="45"/>
       <c r="B110" s="32">
         <v>108</v>
@@ -23062,7 +23045,7 @@
       </c>
       <c r="K110" s="11"/>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="45"/>
       <c r="B111" s="32">
         <v>109</v>
@@ -23099,7 +23082,7 @@
       </c>
       <c r="K111" s="11"/>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="45"/>
       <c r="B112" s="32">
         <v>110</v>
@@ -23136,7 +23119,7 @@
       </c>
       <c r="K112" s="11"/>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="45"/>
       <c r="B113" s="32">
         <v>111</v>
@@ -23173,7 +23156,7 @@
       </c>
       <c r="K113" s="11"/>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="45"/>
       <c r="B114" s="32">
         <v>112</v>
@@ -23210,7 +23193,7 @@
       </c>
       <c r="K114" s="11"/>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="45"/>
       <c r="B115" s="32">
         <v>113</v>
@@ -23247,7 +23230,7 @@
       </c>
       <c r="K115" s="11"/>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="45"/>
       <c r="B116" s="32">
         <v>114</v>
@@ -23284,7 +23267,7 @@
       </c>
       <c r="K116" s="11"/>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="45"/>
       <c r="B117" s="32">
         <v>115</v>
@@ -23321,7 +23304,7 @@
       </c>
       <c r="K117" s="11"/>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="45"/>
       <c r="B118" s="32">
         <v>116</v>
@@ -23358,7 +23341,7 @@
       </c>
       <c r="K118" s="11"/>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="45"/>
       <c r="B119" s="32">
         <v>117</v>
@@ -23395,7 +23378,7 @@
       </c>
       <c r="K119" s="11"/>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="45"/>
       <c r="B120" s="32">
         <v>118</v>
@@ -23432,7 +23415,7 @@
       </c>
       <c r="K120" s="11"/>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="45"/>
       <c r="B121" s="32">
         <v>119</v>
@@ -23469,7 +23452,7 @@
       </c>
       <c r="K121" s="11"/>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="45"/>
       <c r="B122" s="32">
         <v>120</v>
@@ -23506,7 +23489,7 @@
       </c>
       <c r="K122" s="11"/>
     </row>
-    <row r="123" spans="1:11" ht="12" thickBot="1">
+    <row r="123" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="47"/>
       <c r="B123" s="48"/>
       <c r="C123" s="48"/>
@@ -23536,7 +23519,7 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" bestFit="1" customWidth="1"/>
@@ -23550,7 +23533,7 @@
     <col min="11" max="11" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="41"/>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -23570,7 +23553,7 @@
       <c r="J1" s="44"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:12" ht="32.25" customHeight="1">
+    <row r="2" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
       <c r="B2" s="34" t="s">
         <v>1</v>
@@ -23594,17 +23577,17 @@
         <f>$H$1&amp;"_Futures"&amp;$E$1&amp;".xml"</f>
         <v>EUR_YC3M-MxRH_Futures3M.xml</v>
       </c>
-      <c r="I2" s="38">
+      <c r="I2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>120</v>
+        <v>#NUM!</v>
       </c>
       <c r="J2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(I2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
         <v/>
       </c>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
       <c r="B3" s="30">
         <v>1</v>
@@ -23643,7 +23626,7 @@
       <c r="K3" s="11"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="32">
         <v>2</v>
@@ -23681,7 +23664,7 @@
       <c r="K4" s="11"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="32">
         <v>3</v>
@@ -23719,7 +23702,7 @@
       <c r="K5" s="11"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="45"/>
       <c r="B6" s="32">
         <v>4</v>
@@ -23757,7 +23740,7 @@
       <c r="K6" s="11"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="45"/>
       <c r="B7" s="32">
         <v>5</v>
@@ -23795,7 +23778,7 @@
       <c r="K7" s="11"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="45"/>
       <c r="B8" s="32">
         <v>6</v>
@@ -23833,7 +23816,7 @@
       <c r="K8" s="11"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="45"/>
       <c r="B9" s="32">
         <v>7</v>
@@ -23871,7 +23854,7 @@
       <c r="K9" s="11"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="45"/>
       <c r="B10" s="32">
         <v>8</v>
@@ -23909,7 +23892,7 @@
       <c r="K10" s="11"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="45"/>
       <c r="B11" s="32">
         <v>9</v>
@@ -23947,7 +23930,7 @@
       <c r="K11" s="11"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="45"/>
       <c r="B12" s="32">
         <v>10</v>
@@ -23985,7 +23968,7 @@
       <c r="K12" s="11"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="45"/>
       <c r="B13" s="32">
         <v>11</v>
@@ -24023,7 +24006,7 @@
       <c r="K13" s="11"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="45"/>
       <c r="B14" s="32">
         <v>12</v>
@@ -24061,7 +24044,7 @@
       <c r="K14" s="11"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="45"/>
       <c r="B15" s="32">
         <v>13</v>
@@ -24099,7 +24082,7 @@
       <c r="K15" s="11"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="45"/>
       <c r="B16" s="32">
         <v>14</v>
@@ -24137,7 +24120,7 @@
       <c r="K16" s="11"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="45"/>
       <c r="B17" s="32">
         <v>15</v>
@@ -24175,7 +24158,7 @@
       <c r="K17" s="11"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="45"/>
       <c r="B18" s="32">
         <v>16</v>
@@ -24213,7 +24196,7 @@
       <c r="K18" s="11"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="45"/>
       <c r="B19" s="32">
         <v>17</v>
@@ -24251,7 +24234,7 @@
       <c r="K19" s="11"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="45"/>
       <c r="B20" s="32">
         <v>18</v>
@@ -24289,7 +24272,7 @@
       <c r="K20" s="11"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="45"/>
       <c r="B21" s="32">
         <v>19</v>
@@ -24327,7 +24310,7 @@
       <c r="K21" s="11"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="45"/>
       <c r="B22" s="32">
         <v>20</v>
@@ -24365,7 +24348,7 @@
       <c r="K22" s="11"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="45"/>
       <c r="B23" s="32">
         <v>21</v>
@@ -24403,7 +24386,7 @@
       <c r="K23" s="11"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="45"/>
       <c r="B24" s="32">
         <v>22</v>
@@ -24441,7 +24424,7 @@
       <c r="K24" s="11"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="45"/>
       <c r="B25" s="32">
         <v>23</v>
@@ -24479,7 +24462,7 @@
       <c r="K25" s="11"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="45"/>
       <c r="B26" s="32">
         <v>24</v>
@@ -24517,7 +24500,7 @@
       <c r="K26" s="11"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="45"/>
       <c r="B27" s="32">
         <v>25</v>
@@ -24555,7 +24538,7 @@
       <c r="K27" s="11"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="45"/>
       <c r="B28" s="32">
         <v>26</v>
@@ -24593,7 +24576,7 @@
       <c r="K28" s="11"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="45"/>
       <c r="B29" s="32">
         <v>27</v>
@@ -24631,7 +24614,7 @@
       <c r="K29" s="11"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="45"/>
       <c r="B30" s="32">
         <v>28</v>
@@ -24669,7 +24652,7 @@
       <c r="K30" s="11"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="45"/>
       <c r="B31" s="32">
         <v>29</v>
@@ -24707,7 +24690,7 @@
       <c r="K31" s="11"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="45"/>
       <c r="B32" s="32">
         <v>30</v>
@@ -24745,7 +24728,7 @@
       <c r="K32" s="11"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="45"/>
       <c r="B33" s="32">
         <v>31</v>
@@ -24783,7 +24766,7 @@
       <c r="K33" s="11"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="45"/>
       <c r="B34" s="32">
         <v>32</v>
@@ -24821,7 +24804,7 @@
       <c r="K34" s="11"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="45"/>
       <c r="B35" s="32">
         <v>33</v>
@@ -24859,7 +24842,7 @@
       <c r="K35" s="11"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="45"/>
       <c r="B36" s="32">
         <v>34</v>
@@ -24897,7 +24880,7 @@
       <c r="K36" s="11"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="45"/>
       <c r="B37" s="32">
         <v>35</v>
@@ -24935,7 +24918,7 @@
       <c r="K37" s="11"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="45"/>
       <c r="B38" s="32">
         <v>36</v>
@@ -24973,7 +24956,7 @@
       <c r="K38" s="11"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="45"/>
       <c r="B39" s="32">
         <v>37</v>
@@ -25011,7 +24994,7 @@
       <c r="K39" s="11"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="45"/>
       <c r="B40" s="32">
         <v>38</v>
@@ -25048,7 +25031,7 @@
       </c>
       <c r="K40" s="11"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="45"/>
       <c r="B41" s="32">
         <v>39</v>
@@ -25085,7 +25068,7 @@
       </c>
       <c r="K41" s="11"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="45"/>
       <c r="B42" s="32">
         <v>40</v>
@@ -25122,7 +25105,7 @@
       </c>
       <c r="K42" s="11"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="45"/>
       <c r="B43" s="32">
         <v>41</v>
@@ -25159,7 +25142,7 @@
       </c>
       <c r="K43" s="11"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="45"/>
       <c r="B44" s="32">
         <v>42</v>
@@ -25196,7 +25179,7 @@
       </c>
       <c r="K44" s="11"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="45"/>
       <c r="B45" s="32">
         <v>43</v>
@@ -25233,7 +25216,7 @@
       </c>
       <c r="K45" s="11"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="45"/>
       <c r="B46" s="32">
         <v>44</v>
@@ -25270,7 +25253,7 @@
       </c>
       <c r="K46" s="11"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="45"/>
       <c r="B47" s="32">
         <v>45</v>
@@ -25307,7 +25290,7 @@
       </c>
       <c r="K47" s="11"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="45"/>
       <c r="B48" s="32">
         <v>46</v>
@@ -25344,7 +25327,7 @@
       </c>
       <c r="K48" s="11"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="45"/>
       <c r="B49" s="32">
         <v>47</v>
@@ -25381,7 +25364,7 @@
       </c>
       <c r="K49" s="11"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="45"/>
       <c r="B50" s="32">
         <v>48</v>
@@ -25418,7 +25401,7 @@
       </c>
       <c r="K50" s="11"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="45"/>
       <c r="B51" s="32">
         <v>49</v>
@@ -25455,7 +25438,7 @@
       </c>
       <c r="K51" s="11"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="45"/>
       <c r="B52" s="32">
         <v>50</v>
@@ -25492,7 +25475,7 @@
       </c>
       <c r="K52" s="11"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="45"/>
       <c r="B53" s="32">
         <v>51</v>
@@ -25529,7 +25512,7 @@
       </c>
       <c r="K53" s="11"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="45"/>
       <c r="B54" s="32">
         <v>52</v>
@@ -25566,7 +25549,7 @@
       </c>
       <c r="K54" s="11"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="45"/>
       <c r="B55" s="32">
         <v>53</v>
@@ -25603,7 +25586,7 @@
       </c>
       <c r="K55" s="11"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="45"/>
       <c r="B56" s="32">
         <v>54</v>
@@ -25640,7 +25623,7 @@
       </c>
       <c r="K56" s="11"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="45"/>
       <c r="B57" s="32">
         <v>55</v>
@@ -25677,7 +25660,7 @@
       </c>
       <c r="K57" s="11"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="45"/>
       <c r="B58" s="32">
         <v>56</v>
@@ -25714,7 +25697,7 @@
       </c>
       <c r="K58" s="11"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="45"/>
       <c r="B59" s="32">
         <v>57</v>
@@ -25751,7 +25734,7 @@
       </c>
       <c r="K59" s="11"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="45"/>
       <c r="B60" s="32">
         <v>58</v>
@@ -25788,7 +25771,7 @@
       </c>
       <c r="K60" s="11"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="45"/>
       <c r="B61" s="32">
         <v>59</v>
@@ -25825,7 +25808,7 @@
       </c>
       <c r="K61" s="11"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="45"/>
       <c r="B62" s="32">
         <v>60</v>
@@ -25862,7 +25845,7 @@
       </c>
       <c r="K62" s="11"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="45"/>
       <c r="B63" s="32">
         <v>61</v>
@@ -25899,7 +25882,7 @@
       </c>
       <c r="K63" s="11"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="45"/>
       <c r="B64" s="32">
         <v>62</v>
@@ -25936,7 +25919,7 @@
       </c>
       <c r="K64" s="11"/>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="45"/>
       <c r="B65" s="32">
         <v>63</v>
@@ -25973,7 +25956,7 @@
       </c>
       <c r="K65" s="11"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="45"/>
       <c r="B66" s="32">
         <v>64</v>
@@ -26010,7 +25993,7 @@
       </c>
       <c r="K66" s="11"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="45"/>
       <c r="B67" s="32">
         <v>65</v>
@@ -26047,7 +26030,7 @@
       </c>
       <c r="K67" s="11"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="45"/>
       <c r="B68" s="32">
         <v>66</v>
@@ -26084,7 +26067,7 @@
       </c>
       <c r="K68" s="11"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="45"/>
       <c r="B69" s="32">
         <v>67</v>
@@ -26121,7 +26104,7 @@
       </c>
       <c r="K69" s="11"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="45"/>
       <c r="B70" s="32">
         <v>68</v>
@@ -26158,7 +26141,7 @@
       </c>
       <c r="K70" s="11"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="45"/>
       <c r="B71" s="32">
         <v>69</v>
@@ -26195,7 +26178,7 @@
       </c>
       <c r="K71" s="11"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="45"/>
       <c r="B72" s="32">
         <v>70</v>
@@ -26232,7 +26215,7 @@
       </c>
       <c r="K72" s="11"/>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="45"/>
       <c r="B73" s="32">
         <v>71</v>
@@ -26269,7 +26252,7 @@
       </c>
       <c r="K73" s="11"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="45"/>
       <c r="B74" s="32">
         <v>72</v>
@@ -26306,7 +26289,7 @@
       </c>
       <c r="K74" s="11"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="45"/>
       <c r="B75" s="32">
         <v>73</v>
@@ -26343,7 +26326,7 @@
       </c>
       <c r="K75" s="11"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="45"/>
       <c r="B76" s="32">
         <v>74</v>
@@ -26380,7 +26363,7 @@
       </c>
       <c r="K76" s="11"/>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="45"/>
       <c r="B77" s="32">
         <v>75</v>
@@ -26417,7 +26400,7 @@
       </c>
       <c r="K77" s="11"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="45"/>
       <c r="B78" s="32">
         <v>76</v>
@@ -26454,7 +26437,7 @@
       </c>
       <c r="K78" s="11"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="45"/>
       <c r="B79" s="32">
         <v>77</v>
@@ -26491,7 +26474,7 @@
       </c>
       <c r="K79" s="11"/>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="45"/>
       <c r="B80" s="32">
         <v>78</v>
@@ -26528,7 +26511,7 @@
       </c>
       <c r="K80" s="11"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="45"/>
       <c r="B81" s="32">
         <v>79</v>
@@ -26565,7 +26548,7 @@
       </c>
       <c r="K81" s="11"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="45"/>
       <c r="B82" s="32">
         <v>80</v>
@@ -26602,7 +26585,7 @@
       </c>
       <c r="K82" s="11"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="45"/>
       <c r="B83" s="32">
         <v>81</v>
@@ -26639,7 +26622,7 @@
       </c>
       <c r="K83" s="11"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="45"/>
       <c r="B84" s="32">
         <v>82</v>
@@ -26676,7 +26659,7 @@
       </c>
       <c r="K84" s="11"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="45"/>
       <c r="B85" s="32">
         <v>83</v>
@@ -26713,7 +26696,7 @@
       </c>
       <c r="K85" s="11"/>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="45"/>
       <c r="B86" s="32">
         <v>84</v>
@@ -26750,7 +26733,7 @@
       </c>
       <c r="K86" s="11"/>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="45"/>
       <c r="B87" s="32">
         <v>85</v>
@@ -26787,7 +26770,7 @@
       </c>
       <c r="K87" s="11"/>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="45"/>
       <c r="B88" s="32">
         <v>86</v>
@@ -26824,7 +26807,7 @@
       </c>
       <c r="K88" s="11"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="45"/>
       <c r="B89" s="32">
         <v>87</v>
@@ -26861,7 +26844,7 @@
       </c>
       <c r="K89" s="11"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="45"/>
       <c r="B90" s="32">
         <v>88</v>
@@ -26898,7 +26881,7 @@
       </c>
       <c r="K90" s="11"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="45"/>
       <c r="B91" s="32">
         <v>89</v>
@@ -26935,7 +26918,7 @@
       </c>
       <c r="K91" s="11"/>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="45"/>
       <c r="B92" s="32">
         <v>90</v>
@@ -26972,7 +26955,7 @@
       </c>
       <c r="K92" s="11"/>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="45"/>
       <c r="B93" s="32">
         <v>91</v>
@@ -27009,7 +26992,7 @@
       </c>
       <c r="K93" s="11"/>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="45"/>
       <c r="B94" s="32">
         <v>92</v>
@@ -27046,7 +27029,7 @@
       </c>
       <c r="K94" s="11"/>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="45"/>
       <c r="B95" s="32">
         <v>93</v>
@@ -27083,7 +27066,7 @@
       </c>
       <c r="K95" s="11"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="45"/>
       <c r="B96" s="32">
         <v>94</v>
@@ -27120,7 +27103,7 @@
       </c>
       <c r="K96" s="11"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="45"/>
       <c r="B97" s="32">
         <v>95</v>
@@ -27157,7 +27140,7 @@
       </c>
       <c r="K97" s="11"/>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="45"/>
       <c r="B98" s="32">
         <v>96</v>
@@ -27194,7 +27177,7 @@
       </c>
       <c r="K98" s="11"/>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="45"/>
       <c r="B99" s="32">
         <v>97</v>
@@ -27231,7 +27214,7 @@
       </c>
       <c r="K99" s="11"/>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="45"/>
       <c r="B100" s="32">
         <v>98</v>
@@ -27268,7 +27251,7 @@
       </c>
       <c r="K100" s="11"/>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="45"/>
       <c r="B101" s="32">
         <v>99</v>
@@ -27305,7 +27288,7 @@
       </c>
       <c r="K101" s="11"/>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="45"/>
       <c r="B102" s="32">
         <v>100</v>
@@ -27342,7 +27325,7 @@
       </c>
       <c r="K102" s="11"/>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="45"/>
       <c r="B103" s="32">
         <v>101</v>
@@ -27379,7 +27362,7 @@
       </c>
       <c r="K103" s="11"/>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="45"/>
       <c r="B104" s="32">
         <v>102</v>
@@ -27416,7 +27399,7 @@
       </c>
       <c r="K104" s="11"/>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="45"/>
       <c r="B105" s="32">
         <v>103</v>
@@ -27453,7 +27436,7 @@
       </c>
       <c r="K105" s="11"/>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="45"/>
       <c r="B106" s="32">
         <v>104</v>
@@ -27490,7 +27473,7 @@
       </c>
       <c r="K106" s="11"/>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="45"/>
       <c r="B107" s="32">
         <v>105</v>
@@ -27527,7 +27510,7 @@
       </c>
       <c r="K107" s="11"/>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="45"/>
       <c r="B108" s="32">
         <v>106</v>
@@ -27564,7 +27547,7 @@
       </c>
       <c r="K108" s="11"/>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="45"/>
       <c r="B109" s="32">
         <v>107</v>
@@ -27601,7 +27584,7 @@
       </c>
       <c r="K109" s="11"/>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="45"/>
       <c r="B110" s="32">
         <v>108</v>
@@ -27638,7 +27621,7 @@
       </c>
       <c r="K110" s="11"/>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="45"/>
       <c r="B111" s="32">
         <v>109</v>
@@ -27675,7 +27658,7 @@
       </c>
       <c r="K111" s="11"/>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="45"/>
       <c r="B112" s="32">
         <v>110</v>
@@ -27712,7 +27695,7 @@
       </c>
       <c r="K112" s="11"/>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="45"/>
       <c r="B113" s="32">
         <v>111</v>
@@ -27749,7 +27732,7 @@
       </c>
       <c r="K113" s="11"/>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="45"/>
       <c r="B114" s="32">
         <v>112</v>
@@ -27786,7 +27769,7 @@
       </c>
       <c r="K114" s="11"/>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="45"/>
       <c r="B115" s="32">
         <v>113</v>
@@ -27823,7 +27806,7 @@
       </c>
       <c r="K115" s="11"/>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="45"/>
       <c r="B116" s="32">
         <v>114</v>
@@ -27860,7 +27843,7 @@
       </c>
       <c r="K116" s="11"/>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="45"/>
       <c r="B117" s="32">
         <v>115</v>
@@ -27897,7 +27880,7 @@
       </c>
       <c r="K117" s="11"/>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="45"/>
       <c r="B118" s="32">
         <v>116</v>
@@ -27934,7 +27917,7 @@
       </c>
       <c r="K118" s="11"/>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="45"/>
       <c r="B119" s="32">
         <v>117</v>
@@ -27971,7 +27954,7 @@
       </c>
       <c r="K119" s="11"/>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="45"/>
       <c r="B120" s="32">
         <v>118</v>
@@ -28008,7 +27991,7 @@
       </c>
       <c r="K120" s="11"/>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="45"/>
       <c r="B121" s="32">
         <v>119</v>
@@ -28045,7 +28028,7 @@
       </c>
       <c r="K121" s="11"/>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="45"/>
       <c r="B122" s="32">
         <v>120</v>
@@ -28082,7 +28065,7 @@
       </c>
       <c r="K122" s="11"/>
     </row>
-    <row r="123" spans="1:11" ht="13.5" thickBot="1">
+    <row r="123" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="47"/>
       <c r="B123" s="48"/>
       <c r="C123" s="48"/>
@@ -28112,7 +28095,7 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" bestFit="1" customWidth="1"/>
@@ -28125,7 +28108,7 @@
     <col min="10" max="10" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="41"/>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -28146,7 +28129,7 @@
       <c r="I1" s="44"/>
       <c r="J1" s="11"/>
     </row>
-    <row r="2" spans="1:11" ht="32.25" customHeight="1">
+    <row r="2" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
       <c r="B2" s="34" t="s">
         <v>1</v>
@@ -28167,17 +28150,17 @@
         <f>$G$1&amp;"_"&amp;$F$1&amp;$E$1&amp;".xml"</f>
         <v>EUR_YC6M-MxRH_IMMFRA6M.xml</v>
       </c>
-      <c r="H2" s="38">
+      <c r="H2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(H3:H122,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>120</v>
+        <v>#NUM!</v>
       </c>
       <c r="I2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(H2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
         <v/>
       </c>
       <c r="J2" s="11"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
       <c r="B3" s="30">
         <v>1</v>
@@ -28212,7 +28195,7 @@
       <c r="J3" s="11"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="32">
         <v>2</v>
@@ -28246,7 +28229,7 @@
       <c r="J4" s="11"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="32">
         <v>3</v>
@@ -28280,7 +28263,7 @@
       <c r="J5" s="11"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="45"/>
       <c r="B6" s="32">
         <v>4</v>
@@ -28314,7 +28297,7 @@
       <c r="J6" s="11"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="45"/>
       <c r="B7" s="32">
         <v>5</v>
@@ -28348,7 +28331,7 @@
       <c r="J7" s="11"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="45"/>
       <c r="B8" s="32">
         <v>6</v>
@@ -28382,7 +28365,7 @@
       <c r="J8" s="11"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="45"/>
       <c r="B9" s="32">
         <v>7</v>
@@ -28416,7 +28399,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="45"/>
       <c r="B10" s="32">
         <v>8</v>
@@ -28450,7 +28433,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="45"/>
       <c r="B11" s="32">
         <v>9</v>
@@ -28484,7 +28467,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="45"/>
       <c r="B12" s="32">
         <v>10</v>
@@ -28518,7 +28501,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="45"/>
       <c r="B13" s="32">
         <v>11</v>
@@ -28552,7 +28535,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="45"/>
       <c r="B14" s="32">
         <v>12</v>
@@ -28586,7 +28569,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="45"/>
       <c r="B15" s="32">
         <v>13</v>
@@ -28620,7 +28603,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="45"/>
       <c r="B16" s="32">
         <v>14</v>
@@ -28654,7 +28637,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="45"/>
       <c r="B17" s="32">
         <v>15</v>
@@ -28688,7 +28671,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="45"/>
       <c r="B18" s="32">
         <v>16</v>
@@ -28722,7 +28705,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="45"/>
       <c r="B19" s="32">
         <v>17</v>
@@ -28756,7 +28739,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="45"/>
       <c r="B20" s="32">
         <v>18</v>
@@ -28790,7 +28773,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="45"/>
       <c r="B21" s="32">
         <v>19</v>
@@ -28824,7 +28807,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="45"/>
       <c r="B22" s="32">
         <v>20</v>
@@ -28858,7 +28841,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="45"/>
       <c r="B23" s="32">
         <v>21</v>
@@ -28892,7 +28875,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="45"/>
       <c r="B24" s="32">
         <v>22</v>
@@ -28926,7 +28909,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="45"/>
       <c r="B25" s="32">
         <v>23</v>
@@ -28960,7 +28943,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="45"/>
       <c r="B26" s="32">
         <v>24</v>
@@ -28994,7 +28977,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="45"/>
       <c r="B27" s="32">
         <v>25</v>
@@ -29028,7 +29011,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="45"/>
       <c r="B28" s="32">
         <v>26</v>
@@ -29062,7 +29045,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="45"/>
       <c r="B29" s="32">
         <v>27</v>
@@ -29096,7 +29079,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="45"/>
       <c r="B30" s="32">
         <v>28</v>
@@ -29130,7 +29113,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="45"/>
       <c r="B31" s="32">
         <v>29</v>
@@ -29164,7 +29147,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="45"/>
       <c r="B32" s="32">
         <v>30</v>
@@ -29198,7 +29181,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="45"/>
       <c r="B33" s="32">
         <v>31</v>
@@ -29232,7 +29215,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="45"/>
       <c r="B34" s="32">
         <v>32</v>
@@ -29266,7 +29249,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="45"/>
       <c r="B35" s="32">
         <v>33</v>
@@ -29300,7 +29283,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="45"/>
       <c r="B36" s="32">
         <v>34</v>
@@ -29334,7 +29317,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="45"/>
       <c r="B37" s="32">
         <v>35</v>
@@ -29368,7 +29351,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="45"/>
       <c r="B38" s="32">
         <v>36</v>
@@ -29402,7 +29385,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="45"/>
       <c r="B39" s="32">
         <v>37</v>
@@ -29436,7 +29419,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="45"/>
       <c r="B40" s="32">
         <v>38</v>
@@ -29469,7 +29452,7 @@
       </c>
       <c r="J40" s="11"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="45"/>
       <c r="B41" s="32">
         <v>39</v>
@@ -29502,7 +29485,7 @@
       </c>
       <c r="J41" s="11"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="45"/>
       <c r="B42" s="32">
         <v>40</v>
@@ -29535,7 +29518,7 @@
       </c>
       <c r="J42" s="11"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="45"/>
       <c r="B43" s="32">
         <v>41</v>
@@ -29568,7 +29551,7 @@
       </c>
       <c r="J43" s="11"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="45"/>
       <c r="B44" s="32">
         <v>42</v>
@@ -29601,7 +29584,7 @@
       </c>
       <c r="J44" s="11"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="45"/>
       <c r="B45" s="32">
         <v>43</v>
@@ -29634,7 +29617,7 @@
       </c>
       <c r="J45" s="11"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="45"/>
       <c r="B46" s="32">
         <v>44</v>
@@ -29667,7 +29650,7 @@
       </c>
       <c r="J46" s="11"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="45"/>
       <c r="B47" s="32">
         <v>45</v>
@@ -29700,7 +29683,7 @@
       </c>
       <c r="J47" s="11"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="45"/>
       <c r="B48" s="32">
         <v>46</v>
@@ -29733,7 +29716,7 @@
       </c>
       <c r="J48" s="11"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="45"/>
       <c r="B49" s="32">
         <v>47</v>
@@ -29766,7 +29749,7 @@
       </c>
       <c r="J49" s="11"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="45"/>
       <c r="B50" s="32">
         <v>48</v>
@@ -29799,7 +29782,7 @@
       </c>
       <c r="J50" s="11"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="45"/>
       <c r="B51" s="32">
         <v>49</v>
@@ -29832,7 +29815,7 @@
       </c>
       <c r="J51" s="11"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="45"/>
       <c r="B52" s="32">
         <v>50</v>
@@ -29865,7 +29848,7 @@
       </c>
       <c r="J52" s="11"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="45"/>
       <c r="B53" s="32">
         <v>51</v>
@@ -29898,7 +29881,7 @@
       </c>
       <c r="J53" s="11"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="45"/>
       <c r="B54" s="32">
         <v>52</v>
@@ -29931,7 +29914,7 @@
       </c>
       <c r="J54" s="11"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="45"/>
       <c r="B55" s="32">
         <v>53</v>
@@ -29964,7 +29947,7 @@
       </c>
       <c r="J55" s="11"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="45"/>
       <c r="B56" s="32">
         <v>54</v>
@@ -29997,7 +29980,7 @@
       </c>
       <c r="J56" s="11"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="45"/>
       <c r="B57" s="32">
         <v>55</v>
@@ -30030,7 +30013,7 @@
       </c>
       <c r="J57" s="11"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="45"/>
       <c r="B58" s="32">
         <v>56</v>
@@ -30063,7 +30046,7 @@
       </c>
       <c r="J58" s="11"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="45"/>
       <c r="B59" s="32">
         <v>57</v>
@@ -30096,7 +30079,7 @@
       </c>
       <c r="J59" s="11"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="45"/>
       <c r="B60" s="32">
         <v>58</v>
@@ -30129,7 +30112,7 @@
       </c>
       <c r="J60" s="11"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="45"/>
       <c r="B61" s="32">
         <v>59</v>
@@ -30162,7 +30145,7 @@
       </c>
       <c r="J61" s="11"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="45"/>
       <c r="B62" s="32">
         <v>60</v>
@@ -30195,7 +30178,7 @@
       </c>
       <c r="J62" s="11"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="45"/>
       <c r="B63" s="32">
         <v>61</v>
@@ -30228,7 +30211,7 @@
       </c>
       <c r="J63" s="11"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="45"/>
       <c r="B64" s="32">
         <v>62</v>
@@ -30261,7 +30244,7 @@
       </c>
       <c r="J64" s="11"/>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="45"/>
       <c r="B65" s="32">
         <v>63</v>
@@ -30294,7 +30277,7 @@
       </c>
       <c r="J65" s="11"/>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="45"/>
       <c r="B66" s="32">
         <v>64</v>
@@ -30327,7 +30310,7 @@
       </c>
       <c r="J66" s="11"/>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="45"/>
       <c r="B67" s="32">
         <v>65</v>
@@ -30360,7 +30343,7 @@
       </c>
       <c r="J67" s="11"/>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="45"/>
       <c r="B68" s="32">
         <v>66</v>
@@ -30393,7 +30376,7 @@
       </c>
       <c r="J68" s="11"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="45"/>
       <c r="B69" s="32">
         <v>67</v>
@@ -30426,7 +30409,7 @@
       </c>
       <c r="J69" s="11"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="45"/>
       <c r="B70" s="32">
         <v>68</v>
@@ -30459,7 +30442,7 @@
       </c>
       <c r="J70" s="11"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="45"/>
       <c r="B71" s="32">
         <v>69</v>
@@ -30492,7 +30475,7 @@
       </c>
       <c r="J71" s="11"/>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="45"/>
       <c r="B72" s="32">
         <v>70</v>
@@ -30525,7 +30508,7 @@
       </c>
       <c r="J72" s="11"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="45"/>
       <c r="B73" s="32">
         <v>71</v>
@@ -30558,7 +30541,7 @@
       </c>
       <c r="J73" s="11"/>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="45"/>
       <c r="B74" s="32">
         <v>72</v>
@@ -30591,7 +30574,7 @@
       </c>
       <c r="J74" s="11"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="45"/>
       <c r="B75" s="32">
         <v>73</v>
@@ -30624,7 +30607,7 @@
       </c>
       <c r="J75" s="11"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="45"/>
       <c r="B76" s="32">
         <v>74</v>
@@ -30657,7 +30640,7 @@
       </c>
       <c r="J76" s="11"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="45"/>
       <c r="B77" s="32">
         <v>75</v>
@@ -30690,7 +30673,7 @@
       </c>
       <c r="J77" s="11"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="45"/>
       <c r="B78" s="32">
         <v>76</v>
@@ -30723,7 +30706,7 @@
       </c>
       <c r="J78" s="11"/>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="45"/>
       <c r="B79" s="32">
         <v>77</v>
@@ -30756,7 +30739,7 @@
       </c>
       <c r="J79" s="11"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="45"/>
       <c r="B80" s="32">
         <v>78</v>
@@ -30789,7 +30772,7 @@
       </c>
       <c r="J80" s="11"/>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="45"/>
       <c r="B81" s="32">
         <v>79</v>
@@ -30822,7 +30805,7 @@
       </c>
       <c r="J81" s="11"/>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="45"/>
       <c r="B82" s="32">
         <v>80</v>
@@ -30855,7 +30838,7 @@
       </c>
       <c r="J82" s="11"/>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="45"/>
       <c r="B83" s="32">
         <v>81</v>
@@ -30888,7 +30871,7 @@
       </c>
       <c r="J83" s="11"/>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="45"/>
       <c r="B84" s="32">
         <v>82</v>
@@ -30921,7 +30904,7 @@
       </c>
       <c r="J84" s="11"/>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="45"/>
       <c r="B85" s="32">
         <v>83</v>
@@ -30954,7 +30937,7 @@
       </c>
       <c r="J85" s="11"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="45"/>
       <c r="B86" s="32">
         <v>84</v>
@@ -30987,7 +30970,7 @@
       </c>
       <c r="J86" s="11"/>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="45"/>
       <c r="B87" s="32">
         <v>85</v>
@@ -31020,7 +31003,7 @@
       </c>
       <c r="J87" s="11"/>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="45"/>
       <c r="B88" s="32">
         <v>86</v>
@@ -31053,7 +31036,7 @@
       </c>
       <c r="J88" s="11"/>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="45"/>
       <c r="B89" s="32">
         <v>87</v>
@@ -31086,7 +31069,7 @@
       </c>
       <c r="J89" s="11"/>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="45"/>
       <c r="B90" s="32">
         <v>88</v>
@@ -31119,7 +31102,7 @@
       </c>
       <c r="J90" s="11"/>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="45"/>
       <c r="B91" s="32">
         <v>89</v>
@@ -31152,7 +31135,7 @@
       </c>
       <c r="J91" s="11"/>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="45"/>
       <c r="B92" s="32">
         <v>90</v>
@@ -31185,7 +31168,7 @@
       </c>
       <c r="J92" s="11"/>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="45"/>
       <c r="B93" s="32">
         <v>91</v>
@@ -31218,7 +31201,7 @@
       </c>
       <c r="J93" s="11"/>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="45"/>
       <c r="B94" s="32">
         <v>92</v>
@@ -31251,7 +31234,7 @@
       </c>
       <c r="J94" s="11"/>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="45"/>
       <c r="B95" s="32">
         <v>93</v>
@@ -31284,7 +31267,7 @@
       </c>
       <c r="J95" s="11"/>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="45"/>
       <c r="B96" s="32">
         <v>94</v>
@@ -31317,7 +31300,7 @@
       </c>
       <c r="J96" s="11"/>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="45"/>
       <c r="B97" s="32">
         <v>95</v>
@@ -31350,7 +31333,7 @@
       </c>
       <c r="J97" s="11"/>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="45"/>
       <c r="B98" s="32">
         <v>96</v>
@@ -31383,7 +31366,7 @@
       </c>
       <c r="J98" s="11"/>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="45"/>
       <c r="B99" s="32">
         <v>97</v>
@@ -31416,7 +31399,7 @@
       </c>
       <c r="J99" s="11"/>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="45"/>
       <c r="B100" s="32">
         <v>98</v>
@@ -31449,7 +31432,7 @@
       </c>
       <c r="J100" s="11"/>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="45"/>
       <c r="B101" s="32">
         <v>99</v>
@@ -31482,7 +31465,7 @@
       </c>
       <c r="J101" s="11"/>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="45"/>
       <c r="B102" s="32">
         <v>100</v>
@@ -31515,7 +31498,7 @@
       </c>
       <c r="J102" s="11"/>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="45"/>
       <c r="B103" s="32">
         <v>101</v>
@@ -31548,7 +31531,7 @@
       </c>
       <c r="J103" s="11"/>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="45"/>
       <c r="B104" s="32">
         <v>102</v>
@@ -31581,7 +31564,7 @@
       </c>
       <c r="J104" s="11"/>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="45"/>
       <c r="B105" s="32">
         <v>103</v>
@@ -31614,7 +31597,7 @@
       </c>
       <c r="J105" s="11"/>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="45"/>
       <c r="B106" s="32">
         <v>104</v>
@@ -31647,7 +31630,7 @@
       </c>
       <c r="J106" s="11"/>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="45"/>
       <c r="B107" s="32">
         <v>105</v>
@@ -31680,7 +31663,7 @@
       </c>
       <c r="J107" s="11"/>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="45"/>
       <c r="B108" s="32">
         <v>106</v>
@@ -31713,7 +31696,7 @@
       </c>
       <c r="J108" s="11"/>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="45"/>
       <c r="B109" s="32">
         <v>107</v>
@@ -31746,7 +31729,7 @@
       </c>
       <c r="J109" s="11"/>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="45"/>
       <c r="B110" s="32">
         <v>108</v>
@@ -31779,7 +31762,7 @@
       </c>
       <c r="J110" s="11"/>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="45"/>
       <c r="B111" s="32">
         <v>109</v>
@@ -31812,7 +31795,7 @@
       </c>
       <c r="J111" s="11"/>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="45"/>
       <c r="B112" s="32">
         <v>110</v>
@@ -31845,7 +31828,7 @@
       </c>
       <c r="J112" s="11"/>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="45"/>
       <c r="B113" s="32">
         <v>111</v>
@@ -31878,7 +31861,7 @@
       </c>
       <c r="J113" s="11"/>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="45"/>
       <c r="B114" s="32">
         <v>112</v>
@@ -31911,7 +31894,7 @@
       </c>
       <c r="J114" s="11"/>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="45"/>
       <c r="B115" s="32">
         <v>113</v>
@@ -31944,7 +31927,7 @@
       </c>
       <c r="J115" s="11"/>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="45"/>
       <c r="B116" s="32">
         <v>114</v>
@@ -31977,7 +31960,7 @@
       </c>
       <c r="J116" s="11"/>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="45"/>
       <c r="B117" s="32">
         <v>115</v>
@@ -32010,7 +31993,7 @@
       </c>
       <c r="J117" s="11"/>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="45"/>
       <c r="B118" s="32">
         <v>116</v>
@@ -32043,7 +32026,7 @@
       </c>
       <c r="J118" s="11"/>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="45"/>
       <c r="B119" s="32">
         <v>117</v>
@@ -32076,7 +32059,7 @@
       </c>
       <c r="J119" s="11"/>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="45"/>
       <c r="B120" s="32">
         <v>118</v>
@@ -32109,7 +32092,7 @@
       </c>
       <c r="J120" s="11"/>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="45"/>
       <c r="B121" s="32">
         <v>119</v>
@@ -32142,7 +32125,7 @@
       </c>
       <c r="J121" s="11"/>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="45"/>
       <c r="B122" s="32">
         <v>120</v>
@@ -32175,7 +32158,7 @@
       </c>
       <c r="J122" s="11"/>
     </row>
-    <row r="123" spans="1:10" ht="13.5" thickBot="1">
+    <row r="123" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="47"/>
       <c r="B123" s="48"/>
       <c r="C123" s="48"/>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/EUR_YCRH_Futures.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/EUR_YCRH_Futures.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Currency</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>-Mx</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1018,8 +1015,9 @@
       <c r="C8" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="27" t="s">
-        <v>26</v>
+      <c r="D8" s="27" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
       </c>
       <c r="E8" s="17"/>
     </row>
@@ -1184,12 +1182,12 @@
         <v>EUR_YCSTDRH_Futures3M.xml</v>
       </c>
       <c r="I2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K2" s="11"/>
     </row>
@@ -5760,12 +5758,12 @@
         <v>EUR_YC1MRH_Futures1M.xml</v>
       </c>
       <c r="I2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K2" s="11"/>
     </row>
@@ -5801,9 +5799,9 @@
         <f>_xll.qlFuturesRateHelper(H3,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J3" s="31" t="str">
+      <c r="J3" s="31" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="46"/>
@@ -5839,9 +5837,9 @@
         <f>_xll.qlFuturesRateHelper(H4,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J4" s="33" t="str">
+      <c r="J4" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I4)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="46"/>
@@ -5877,9 +5875,9 @@
         <f>_xll.qlFuturesRateHelper(H5,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J5" s="33" t="str">
+      <c r="J5" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I5)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="46"/>
@@ -5915,9 +5913,9 @@
         <f>_xll.qlFuturesRateHelper(H6,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J6" s="33" t="str">
+      <c r="J6" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I6)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="46"/>
@@ -5953,9 +5951,9 @@
         <f>_xll.qlFuturesRateHelper(H7,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J7" s="33" t="str">
+      <c r="J7" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I7)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="46"/>
@@ -5991,9 +5989,9 @@
         <f>_xll.qlFuturesRateHelper(H8,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J8" s="33" t="str">
+      <c r="J8" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I8)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="46"/>
@@ -6029,9 +6027,9 @@
         <f>_xll.qlFuturesRateHelper(H9,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J9" s="33" t="str">
+      <c r="J9" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I9)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="46"/>
@@ -6067,9 +6065,9 @@
         <f>_xll.qlFuturesRateHelper(H10,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J10" s="33" t="str">
+      <c r="J10" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I10)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="46"/>
@@ -6105,9 +6103,9 @@
         <f>_xll.qlFuturesRateHelper(H11,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J11" s="33" t="str">
+      <c r="J11" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I11)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="46"/>
@@ -6143,9 +6141,9 @@
         <f>_xll.qlFuturesRateHelper(H12,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J12" s="33" t="str">
+      <c r="J12" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I12)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K12" s="11"/>
       <c r="L12" s="46"/>
@@ -6181,9 +6179,9 @@
         <f>_xll.qlFuturesRateHelper(H13,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J13" s="33" t="str">
+      <c r="J13" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I13)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="46"/>
@@ -6219,9 +6217,9 @@
         <f>_xll.qlFuturesRateHelper(H14,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J14" s="33" t="str">
+      <c r="J14" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I14)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="46"/>
@@ -6257,9 +6255,9 @@
         <f>_xll.qlFuturesRateHelper(H15,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J15" s="33" t="str">
+      <c r="J15" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I15)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="46"/>
@@ -6295,9 +6293,9 @@
         <f>_xll.qlFuturesRateHelper(H16,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J16" s="33" t="str">
+      <c r="J16" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I16)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="46"/>
@@ -6333,9 +6331,9 @@
         <f>_xll.qlFuturesRateHelper(H17,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J17" s="33" t="str">
+      <c r="J17" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I17)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="46"/>
@@ -6371,9 +6369,9 @@
         <f>_xll.qlFuturesRateHelper(H18,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J18" s="33" t="str">
+      <c r="J18" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I18)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="46"/>
@@ -6409,9 +6407,9 @@
         <f>_xll.qlFuturesRateHelper(H19,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J19" s="33" t="str">
+      <c r="J19" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I19)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K19" s="11"/>
       <c r="L19" s="46"/>
@@ -6447,9 +6445,9 @@
         <f>_xll.qlFuturesRateHelper(H20,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J20" s="33" t="str">
+      <c r="J20" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I20)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="46"/>
@@ -6485,9 +6483,9 @@
         <f>_xll.qlFuturesRateHelper(H21,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J21" s="33" t="str">
+      <c r="J21" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I21)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K21" s="11"/>
       <c r="L21" s="46"/>
@@ -6523,9 +6521,9 @@
         <f>_xll.qlFuturesRateHelper(H22,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J22" s="33" t="str">
+      <c r="J22" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I22)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K22" s="11"/>
       <c r="L22" s="46"/>
@@ -6561,9 +6559,9 @@
         <f>_xll.qlFuturesRateHelper(H23,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J23" s="33" t="str">
+      <c r="J23" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I23)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K23" s="11"/>
       <c r="L23" s="46"/>
@@ -6599,9 +6597,9 @@
         <f>_xll.qlFuturesRateHelper(H24,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J24" s="33" t="str">
+      <c r="J24" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I24)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K24" s="11"/>
       <c r="L24" s="46"/>
@@ -6637,9 +6635,9 @@
         <f>_xll.qlFuturesRateHelper(H25,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J25" s="33" t="str">
+      <c r="J25" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I25)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K25" s="11"/>
       <c r="L25" s="46"/>
@@ -6675,9 +6673,9 @@
         <f>_xll.qlFuturesRateHelper(H26,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J26" s="33" t="str">
+      <c r="J26" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I26)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K26" s="11"/>
       <c r="L26" s="46"/>
@@ -6713,9 +6711,9 @@
         <f>_xll.qlFuturesRateHelper(H27,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J27" s="33" t="str">
+      <c r="J27" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I27)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="46"/>
@@ -6751,9 +6749,9 @@
         <f>_xll.qlFuturesRateHelper(H28,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J28" s="33" t="str">
+      <c r="J28" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I28)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K28" s="11"/>
       <c r="L28" s="46"/>
@@ -6789,9 +6787,9 @@
         <f>_xll.qlFuturesRateHelper(H29,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J29" s="33" t="str">
+      <c r="J29" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I29)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K29" s="11"/>
       <c r="L29" s="46"/>
@@ -6827,9 +6825,9 @@
         <f>_xll.qlFuturesRateHelper(H30,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J30" s="33" t="str">
+      <c r="J30" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I30)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K30" s="11"/>
       <c r="L30" s="46"/>
@@ -6865,9 +6863,9 @@
         <f>_xll.qlFuturesRateHelper(H31,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J31" s="33" t="str">
+      <c r="J31" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I31)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K31" s="11"/>
       <c r="L31" s="46"/>
@@ -6903,9 +6901,9 @@
         <f>_xll.qlFuturesRateHelper(H32,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J32" s="33" t="str">
+      <c r="J32" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I32)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K32" s="11"/>
       <c r="L32" s="46"/>
@@ -6941,9 +6939,9 @@
         <f>_xll.qlFuturesRateHelper(H33,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J33" s="33" t="str">
+      <c r="J33" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I33)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K33" s="11"/>
       <c r="L33" s="46"/>
@@ -6979,9 +6977,9 @@
         <f>_xll.qlFuturesRateHelper(H34,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J34" s="33" t="str">
+      <c r="J34" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I34)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K34" s="11"/>
       <c r="L34" s="46"/>
@@ -7017,9 +7015,9 @@
         <f>_xll.qlFuturesRateHelper(H35,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J35" s="33" t="str">
+      <c r="J35" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I35)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K35" s="11"/>
       <c r="L35" s="46"/>
@@ -7055,9 +7053,9 @@
         <f>_xll.qlFuturesRateHelper(H36,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J36" s="33" t="str">
+      <c r="J36" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I36)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K36" s="11"/>
       <c r="L36" s="46"/>
@@ -7093,9 +7091,9 @@
         <f>_xll.qlFuturesRateHelper(H37,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J37" s="33" t="str">
+      <c r="J37" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I37)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K37" s="11"/>
       <c r="L37" s="46"/>
@@ -7131,9 +7129,9 @@
         <f>_xll.qlFuturesRateHelper(H38,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J38" s="33" t="str">
+      <c r="J38" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I38)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K38" s="11"/>
       <c r="L38" s="46"/>
@@ -7169,9 +7167,9 @@
         <f>_xll.qlFuturesRateHelper(H39,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J39" s="33" t="str">
+      <c r="J39" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I39)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K39" s="11"/>
       <c r="L39" s="46"/>
@@ -7207,9 +7205,9 @@
         <f>_xll.qlFuturesRateHelper(H40,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J40" s="33" t="str">
+      <c r="J40" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I40)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K40" s="11"/>
     </row>
@@ -7244,9 +7242,9 @@
         <f>_xll.qlFuturesRateHelper(H41,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J41" s="33" t="str">
+      <c r="J41" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I41)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K41" s="11"/>
     </row>
@@ -7281,9 +7279,9 @@
         <f>_xll.qlFuturesRateHelper(H42,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J42" s="33" t="str">
+      <c r="J42" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I42)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K42" s="11"/>
     </row>
@@ -7318,9 +7316,9 @@
         <f>_xll.qlFuturesRateHelper(H43,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J43" s="33" t="str">
+      <c r="J43" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I43)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K43" s="11"/>
     </row>
@@ -7355,9 +7353,9 @@
         <f>_xll.qlFuturesRateHelper(H44,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J44" s="33" t="str">
+      <c r="J44" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I44)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K44" s="11"/>
     </row>
@@ -7392,9 +7390,9 @@
         <f>_xll.qlFuturesRateHelper(H45,$F45,$D45,$E45,$G45,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J45" s="33" t="str">
+      <c r="J45" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I45)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K45" s="11"/>
     </row>
@@ -7429,9 +7427,9 @@
         <f>_xll.qlFuturesRateHelper(H46,$F46,$D46,$E46,$G46,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J46" s="33" t="str">
+      <c r="J46" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I46)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K46" s="11"/>
     </row>
@@ -7466,9 +7464,9 @@
         <f>_xll.qlFuturesRateHelper(H47,$F47,$D47,$E47,$G47,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J47" s="33" t="str">
+      <c r="J47" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I47)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K47" s="11"/>
     </row>
@@ -7503,9 +7501,9 @@
         <f>_xll.qlFuturesRateHelper(H48,$F48,$D48,$E48,$G48,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J48" s="33" t="str">
+      <c r="J48" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I48)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K48" s="11"/>
     </row>
@@ -7540,9 +7538,9 @@
         <f>_xll.qlFuturesRateHelper(H49,$F49,$D49,$E49,$G49,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J49" s="33" t="str">
+      <c r="J49" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I49)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K49" s="11"/>
     </row>
@@ -7577,9 +7575,9 @@
         <f>_xll.qlFuturesRateHelper(H50,$F50,$D50,$E50,$G50,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J50" s="33" t="str">
+      <c r="J50" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I50)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K50" s="11"/>
     </row>
@@ -7614,9 +7612,9 @@
         <f>_xll.qlFuturesRateHelper(H51,$F51,$D51,$E51,$G51,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J51" s="33" t="str">
+      <c r="J51" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I51)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K51" s="11"/>
     </row>
@@ -7651,9 +7649,9 @@
         <f>_xll.qlFuturesRateHelper(H52,$F52,$D52,$E52,$G52,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J52" s="33" t="str">
+      <c r="J52" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I52)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K52" s="11"/>
     </row>
@@ -7688,9 +7686,9 @@
         <f>_xll.qlFuturesRateHelper(H53,$F53,$D53,$E53,$G53,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J53" s="33" t="str">
+      <c r="J53" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I53)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K53" s="11"/>
     </row>
@@ -7725,9 +7723,9 @@
         <f>_xll.qlFuturesRateHelper(H54,$F54,$D54,$E54,$G54,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J54" s="33" t="str">
+      <c r="J54" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I54)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K54" s="11"/>
     </row>
@@ -7762,9 +7760,9 @@
         <f>_xll.qlFuturesRateHelper(H55,$F55,$D55,$E55,$G55,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J55" s="33" t="str">
+      <c r="J55" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I55)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K55" s="11"/>
     </row>
@@ -7799,9 +7797,9 @@
         <f>_xll.qlFuturesRateHelper(H56,$F56,$D56,$E56,$G56,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J56" s="33" t="str">
+      <c r="J56" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I56)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K56" s="11"/>
     </row>
@@ -7836,9 +7834,9 @@
         <f>_xll.qlFuturesRateHelper(H57,$F57,$D57,$E57,$G57,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J57" s="33" t="str">
+      <c r="J57" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I57)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K57" s="11"/>
     </row>
@@ -7873,9 +7871,9 @@
         <f>_xll.qlFuturesRateHelper(H58,$F58,$D58,$E58,$G58,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J58" s="33" t="str">
+      <c r="J58" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I58)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K58" s="11"/>
     </row>
@@ -7910,9 +7908,9 @@
         <f>_xll.qlFuturesRateHelper(H59,$F59,$D59,$E59,$G59,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J59" s="33" t="str">
+      <c r="J59" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I59)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K59" s="11"/>
     </row>
@@ -7947,9 +7945,9 @@
         <f>_xll.qlFuturesRateHelper(H60,$F60,$D60,$E60,$G60,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J60" s="33" t="str">
+      <c r="J60" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I60)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K60" s="11"/>
     </row>
@@ -7984,9 +7982,9 @@
         <f>_xll.qlFuturesRateHelper(H61,$F61,$D61,$E61,$G61,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J61" s="33" t="str">
+      <c r="J61" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I61)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K61" s="11"/>
     </row>
@@ -8021,9 +8019,9 @@
         <f>_xll.qlFuturesRateHelper(H62,$F62,$D62,$E62,$G62,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J62" s="33" t="str">
+      <c r="J62" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I62)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K62" s="11"/>
     </row>
@@ -8058,9 +8056,9 @@
         <f>_xll.qlFuturesRateHelper(H63,$F63,$D63,$E63,$G63,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J63" s="33" t="str">
+      <c r="J63" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I63)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K63" s="11"/>
     </row>
@@ -8095,9 +8093,9 @@
         <f>_xll.qlFuturesRateHelper(H64,$F64,$D64,$E64,$G64,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J64" s="33" t="str">
+      <c r="J64" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I64)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K64" s="11"/>
     </row>
@@ -8132,9 +8130,9 @@
         <f>_xll.qlFuturesRateHelper(H65,$F65,$D65,$E65,$G65,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J65" s="33" t="str">
+      <c r="J65" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I65)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K65" s="11"/>
     </row>
@@ -8169,9 +8167,9 @@
         <f>_xll.qlFuturesRateHelper(H66,$F66,$D66,$E66,$G66,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J66" s="33" t="str">
+      <c r="J66" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I66)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K66" s="11"/>
     </row>
@@ -8206,9 +8204,9 @@
         <f>_xll.qlFuturesRateHelper(H67,$F67,$D67,$E67,$G67,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J67" s="33" t="str">
+      <c r="J67" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I67)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K67" s="11"/>
     </row>
@@ -8243,9 +8241,9 @@
         <f>_xll.qlFuturesRateHelper(H68,$F68,$D68,$E68,$G68,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J68" s="33" t="str">
+      <c r="J68" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I68)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K68" s="11"/>
     </row>
@@ -8280,9 +8278,9 @@
         <f>_xll.qlFuturesRateHelper(H69,$F69,$D69,$E69,$G69,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J69" s="33" t="str">
+      <c r="J69" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I69)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K69" s="11"/>
     </row>
@@ -8317,9 +8315,9 @@
         <f>_xll.qlFuturesRateHelper(H70,$F70,$D70,$E70,$G70,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J70" s="33" t="str">
+      <c r="J70" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I70)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K70" s="11"/>
     </row>
@@ -8354,9 +8352,9 @@
         <f>_xll.qlFuturesRateHelper(H71,$F71,$D71,$E71,$G71,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J71" s="33" t="str">
+      <c r="J71" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I71)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K71" s="11"/>
     </row>
@@ -8391,9 +8389,9 @@
         <f>_xll.qlFuturesRateHelper(H72,$F72,$D72,$E72,$G72,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J72" s="33" t="str">
+      <c r="J72" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I72)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K72" s="11"/>
     </row>
@@ -8428,9 +8426,9 @@
         <f>_xll.qlFuturesRateHelper(H73,$F73,$D73,$E73,$G73,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J73" s="33" t="str">
+      <c r="J73" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I73)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K73" s="11"/>
     </row>
@@ -8465,9 +8463,9 @@
         <f>_xll.qlFuturesRateHelper(H74,$F74,$D74,$E74,$G74,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J74" s="33" t="str">
+      <c r="J74" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I74)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K74" s="11"/>
     </row>
@@ -8502,9 +8500,9 @@
         <f>_xll.qlFuturesRateHelper(H75,$F75,$D75,$E75,$G75,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J75" s="33" t="str">
+      <c r="J75" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I75)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K75" s="11"/>
     </row>
@@ -8539,9 +8537,9 @@
         <f>_xll.qlFuturesRateHelper(H76,$F76,$D76,$E76,$G76,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J76" s="33" t="str">
+      <c r="J76" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I76)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K76" s="11"/>
     </row>
@@ -8576,9 +8574,9 @@
         <f>_xll.qlFuturesRateHelper(H77,$F77,$D77,$E77,$G77,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J77" s="33" t="str">
+      <c r="J77" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I77)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K77" s="11"/>
     </row>
@@ -8613,9 +8611,9 @@
         <f>_xll.qlFuturesRateHelper(H78,$F78,$D78,$E78,$G78,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J78" s="33" t="str">
+      <c r="J78" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I78)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K78" s="11"/>
     </row>
@@ -8650,9 +8648,9 @@
         <f>_xll.qlFuturesRateHelper(H79,$F79,$D79,$E79,$G79,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J79" s="33" t="str">
+      <c r="J79" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I79)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K79" s="11"/>
     </row>
@@ -8687,9 +8685,9 @@
         <f>_xll.qlFuturesRateHelper(H80,$F80,$D80,$E80,$G80,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J80" s="33" t="str">
+      <c r="J80" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I80)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K80" s="11"/>
     </row>
@@ -8724,9 +8722,9 @@
         <f>_xll.qlFuturesRateHelper(H81,$F81,$D81,$E81,$G81,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J81" s="33" t="str">
+      <c r="J81" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I81)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K81" s="11"/>
     </row>
@@ -8761,9 +8759,9 @@
         <f>_xll.qlFuturesRateHelper(H82,$F82,$D82,$E82,$G82,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J82" s="33" t="str">
+      <c r="J82" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I82)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K82" s="11"/>
     </row>
@@ -8798,9 +8796,9 @@
         <f>_xll.qlFuturesRateHelper(H83,$F83,$D83,$E83,$G83,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J83" s="33" t="str">
+      <c r="J83" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I83)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K83" s="11"/>
     </row>
@@ -8835,9 +8833,9 @@
         <f>_xll.qlFuturesRateHelper(H84,$F84,$D84,$E84,$G84,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J84" s="33" t="str">
+      <c r="J84" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I84)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K84" s="11"/>
     </row>
@@ -8872,9 +8870,9 @@
         <f>_xll.qlFuturesRateHelper(H85,$F85,$D85,$E85,$G85,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J85" s="33" t="str">
+      <c r="J85" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I85)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K85" s="11"/>
     </row>
@@ -8909,9 +8907,9 @@
         <f>_xll.qlFuturesRateHelper(H86,$F86,$D86,$E86,$G86,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J86" s="33" t="str">
+      <c r="J86" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I86)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K86" s="11"/>
     </row>
@@ -8946,9 +8944,9 @@
         <f>_xll.qlFuturesRateHelper(H87,$F87,$D87,$E87,$G87,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J87" s="33" t="str">
+      <c r="J87" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I87)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K87" s="11"/>
     </row>
@@ -8983,9 +8981,9 @@
         <f>_xll.qlFuturesRateHelper(H88,$F88,$D88,$E88,$G88,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J88" s="33" t="str">
+      <c r="J88" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I88)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K88" s="11"/>
     </row>
@@ -9020,9 +9018,9 @@
         <f>_xll.qlFuturesRateHelper(H89,$F89,$D89,$E89,$G89,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J89" s="33" t="str">
+      <c r="J89" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I89)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K89" s="11"/>
     </row>
@@ -9057,9 +9055,9 @@
         <f>_xll.qlFuturesRateHelper(H90,$F90,$D90,$E90,$G90,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J90" s="33" t="str">
+      <c r="J90" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I90)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K90" s="11"/>
     </row>
@@ -9094,9 +9092,9 @@
         <f>_xll.qlFuturesRateHelper(H91,$F91,$D91,$E91,$G91,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J91" s="33" t="str">
+      <c r="J91" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I91)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K91" s="11"/>
     </row>
@@ -9131,9 +9129,9 @@
         <f>_xll.qlFuturesRateHelper(H92,$F92,$D92,$E92,$G92,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J92" s="33" t="str">
+      <c r="J92" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I92)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K92" s="11"/>
     </row>
@@ -9168,9 +9166,9 @@
         <f>_xll.qlFuturesRateHelper(H93,$F93,$D93,$E93,$G93,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J93" s="33" t="str">
+      <c r="J93" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I93)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K93" s="11"/>
     </row>
@@ -9205,9 +9203,9 @@
         <f>_xll.qlFuturesRateHelper(H94,$F94,$D94,$E94,$G94,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J94" s="33" t="str">
+      <c r="J94" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I94)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K94" s="11"/>
     </row>
@@ -9242,9 +9240,9 @@
         <f>_xll.qlFuturesRateHelper(H95,$F95,$D95,$E95,$G95,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J95" s="33" t="str">
+      <c r="J95" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I95)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K95" s="11"/>
     </row>
@@ -9279,9 +9277,9 @@
         <f>_xll.qlFuturesRateHelper(H96,$F96,$D96,$E96,$G96,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J96" s="33" t="str">
+      <c r="J96" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I96)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K96" s="11"/>
     </row>
@@ -9316,9 +9314,9 @@
         <f>_xll.qlFuturesRateHelper(H97,$F97,$D97,$E97,$G97,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J97" s="33" t="str">
+      <c r="J97" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I97)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K97" s="11"/>
     </row>
@@ -9353,9 +9351,9 @@
         <f>_xll.qlFuturesRateHelper(H98,$F98,$D98,$E98,$G98,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J98" s="33" t="str">
+      <c r="J98" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I98)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K98" s="11"/>
     </row>
@@ -9390,9 +9388,9 @@
         <f>_xll.qlFuturesRateHelper(H99,$F99,$D99,$E99,$G99,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J99" s="33" t="str">
+      <c r="J99" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I99)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K99" s="11"/>
     </row>
@@ -9427,9 +9425,9 @@
         <f>_xll.qlFuturesRateHelper(H100,$F100,$D100,$E100,$G100,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J100" s="33" t="str">
+      <c r="J100" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I100)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K100" s="11"/>
     </row>
@@ -9464,9 +9462,9 @@
         <f>_xll.qlFuturesRateHelper(H101,$F101,$D101,$E101,$G101,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J101" s="33" t="str">
+      <c r="J101" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I101)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K101" s="11"/>
     </row>
@@ -9501,9 +9499,9 @@
         <f>_xll.qlFuturesRateHelper(H102,$F102,$D102,$E102,$G102,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J102" s="33" t="str">
+      <c r="J102" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I102)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K102" s="11"/>
     </row>
@@ -9538,9 +9536,9 @@
         <f>_xll.qlFuturesRateHelper(H103,$F103,$D103,$E103,$G103,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J103" s="33" t="str">
+      <c r="J103" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I103)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K103" s="11"/>
     </row>
@@ -9575,9 +9573,9 @@
         <f>_xll.qlFuturesRateHelper(H104,$F104,$D104,$E104,$G104,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J104" s="33" t="str">
+      <c r="J104" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I104)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K104" s="11"/>
     </row>
@@ -9612,9 +9610,9 @@
         <f>_xll.qlFuturesRateHelper(H105,$F105,$D105,$E105,$G105,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J105" s="33" t="str">
+      <c r="J105" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I105)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K105" s="11"/>
     </row>
@@ -9649,9 +9647,9 @@
         <f>_xll.qlFuturesRateHelper(H106,$F106,$D106,$E106,$G106,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J106" s="33" t="str">
+      <c r="J106" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I106)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K106" s="11"/>
     </row>
@@ -9686,9 +9684,9 @@
         <f>_xll.qlFuturesRateHelper(H107,$F107,$D107,$E107,$G107,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J107" s="33" t="str">
+      <c r="J107" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I107)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K107" s="11"/>
     </row>
@@ -9723,9 +9721,9 @@
         <f>_xll.qlFuturesRateHelper(H108,$F108,$D108,$E108,$G108,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J108" s="33" t="str">
+      <c r="J108" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I108)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K108" s="11"/>
     </row>
@@ -9760,9 +9758,9 @@
         <f>_xll.qlFuturesRateHelper(H109,$F109,$D109,$E109,$G109,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J109" s="33" t="str">
+      <c r="J109" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I109)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K109" s="11"/>
     </row>
@@ -9797,9 +9795,9 @@
         <f>_xll.qlFuturesRateHelper(H110,$F110,$D110,$E110,$G110,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J110" s="33" t="str">
+      <c r="J110" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I110)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K110" s="11"/>
     </row>
@@ -9834,9 +9832,9 @@
         <f>_xll.qlFuturesRateHelper(H111,$F111,$D111,$E111,$G111,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J111" s="33" t="str">
+      <c r="J111" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I111)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K111" s="11"/>
     </row>
@@ -9871,9 +9869,9 @@
         <f>_xll.qlFuturesRateHelper(H112,$F112,$D112,$E112,$G112,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J112" s="33" t="str">
+      <c r="J112" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I112)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K112" s="11"/>
     </row>
@@ -9908,9 +9906,9 @@
         <f>_xll.qlFuturesRateHelper(H113,$F113,$D113,$E113,$G113,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J113" s="33" t="str">
+      <c r="J113" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I113)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K113" s="11"/>
     </row>
@@ -9945,9 +9943,9 @@
         <f>_xll.qlFuturesRateHelper(H114,$F114,$D114,$E114,$G114,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J114" s="33" t="str">
+      <c r="J114" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I114)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K114" s="11"/>
     </row>
@@ -9982,9 +9980,9 @@
         <f>_xll.qlFuturesRateHelper(H115,$F115,$D115,$E115,$G115,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J115" s="33" t="str">
+      <c r="J115" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I115)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K115" s="11"/>
     </row>
@@ -10019,9 +10017,9 @@
         <f>_xll.qlFuturesRateHelper(H116,$F116,$D116,$E116,$G116,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J116" s="33" t="str">
+      <c r="J116" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I116)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K116" s="11"/>
     </row>
@@ -10056,9 +10054,9 @@
         <f>_xll.qlFuturesRateHelper(H117,$F117,$D117,$E117,$G117,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J117" s="33" t="str">
+      <c r="J117" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I117)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K117" s="11"/>
     </row>
@@ -10093,9 +10091,9 @@
         <f>_xll.qlFuturesRateHelper(H118,$F118,$D118,$E118,$G118,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J118" s="33" t="str">
+      <c r="J118" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I118)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K118" s="11"/>
     </row>
@@ -10130,9 +10128,9 @@
         <f>_xll.qlFuturesRateHelper(H119,$F119,$D119,$E119,$G119,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J119" s="33" t="str">
+      <c r="J119" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I119)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K119" s="11"/>
     </row>
@@ -10167,9 +10165,9 @@
         <f>_xll.qlFuturesRateHelper(H120,$F120,$D120,$E120,$G120,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J120" s="33" t="str">
+      <c r="J120" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I120)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K120" s="11"/>
     </row>
@@ -10204,9 +10202,9 @@
         <f>_xll.qlFuturesRateHelper(H121,$F121,$D121,$E121,$G121,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J121" s="33" t="str">
+      <c r="J121" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I121)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K121" s="11"/>
     </row>
@@ -10241,9 +10239,9 @@
         <f>_xll.qlFuturesRateHelper(H122,$F122,$D122,$E122,$G122,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J122" s="33" t="str">
+      <c r="J122" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I122)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K122" s="11"/>
     </row>
@@ -10334,12 +10332,12 @@
         <v>EUR_YC3MRH_Futures3M.xml</v>
       </c>
       <c r="I2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K2" s="11"/>
     </row>
@@ -14905,12 +14903,12 @@
         <v>EUR_YC6MRH_IMMFRA6M.xml</v>
       </c>
       <c r="H2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(H3:H122,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H122,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="J2" s="11"/>
     </row>
@@ -19002,12 +19000,12 @@
         <v>EUR_YC1M-MxRH_Futures1M.xml</v>
       </c>
       <c r="I2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K2" s="11"/>
     </row>
@@ -19043,9 +19041,9 @@
         <f>_xll.qlFuturesRateHelper(H3,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J3" s="31" t="str">
+      <c r="J3" s="31" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="46"/>
@@ -19081,9 +19079,9 @@
         <f>_xll.qlFuturesRateHelper(H4,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J4" s="33" t="str">
+      <c r="J4" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I4)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="46"/>
@@ -19119,9 +19117,9 @@
         <f>_xll.qlFuturesRateHelper(H5,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J5" s="33" t="str">
+      <c r="J5" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I5)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="46"/>
@@ -19157,9 +19155,9 @@
         <f>_xll.qlFuturesRateHelper(H6,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J6" s="33" t="str">
+      <c r="J6" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I6)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="46"/>
@@ -19195,9 +19193,9 @@
         <f>_xll.qlFuturesRateHelper(H7,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J7" s="33" t="str">
+      <c r="J7" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I7)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="46"/>
@@ -19233,9 +19231,9 @@
         <f>_xll.qlFuturesRateHelper(H8,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J8" s="33" t="str">
+      <c r="J8" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I8)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="46"/>
@@ -19271,9 +19269,9 @@
         <f>_xll.qlFuturesRateHelper(H9,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J9" s="33" t="str">
+      <c r="J9" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I9)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="46"/>
@@ -19309,9 +19307,9 @@
         <f>_xll.qlFuturesRateHelper(H10,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J10" s="33" t="str">
+      <c r="J10" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I10)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="46"/>
@@ -19347,9 +19345,9 @@
         <f>_xll.qlFuturesRateHelper(H11,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J11" s="33" t="str">
+      <c r="J11" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I11)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="46"/>
@@ -19385,9 +19383,9 @@
         <f>_xll.qlFuturesRateHelper(H12,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J12" s="33" t="str">
+      <c r="J12" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I12)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K12" s="11"/>
       <c r="L12" s="46"/>
@@ -19423,9 +19421,9 @@
         <f>_xll.qlFuturesRateHelper(H13,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J13" s="33" t="str">
+      <c r="J13" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I13)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="46"/>
@@ -19461,9 +19459,9 @@
         <f>_xll.qlFuturesRateHelper(H14,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J14" s="33" t="str">
+      <c r="J14" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I14)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="46"/>
@@ -19499,9 +19497,9 @@
         <f>_xll.qlFuturesRateHelper(H15,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J15" s="33" t="str">
+      <c r="J15" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I15)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="46"/>
@@ -19537,9 +19535,9 @@
         <f>_xll.qlFuturesRateHelper(H16,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J16" s="33" t="str">
+      <c r="J16" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I16)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="46"/>
@@ -19575,9 +19573,9 @@
         <f>_xll.qlFuturesRateHelper(H17,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J17" s="33" t="str">
+      <c r="J17" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I17)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="46"/>
@@ -19613,9 +19611,9 @@
         <f>_xll.qlFuturesRateHelper(H18,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J18" s="33" t="str">
+      <c r="J18" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I18)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="46"/>
@@ -19651,9 +19649,9 @@
         <f>_xll.qlFuturesRateHelper(H19,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J19" s="33" t="str">
+      <c r="J19" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I19)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K19" s="11"/>
       <c r="L19" s="46"/>
@@ -19689,9 +19687,9 @@
         <f>_xll.qlFuturesRateHelper(H20,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J20" s="33" t="str">
+      <c r="J20" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I20)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="46"/>
@@ -19727,9 +19725,9 @@
         <f>_xll.qlFuturesRateHelper(H21,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J21" s="33" t="str">
+      <c r="J21" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I21)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K21" s="11"/>
       <c r="L21" s="46"/>
@@ -19765,9 +19763,9 @@
         <f>_xll.qlFuturesRateHelper(H22,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J22" s="33" t="str">
+      <c r="J22" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I22)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K22" s="11"/>
       <c r="L22" s="46"/>
@@ -19803,9 +19801,9 @@
         <f>_xll.qlFuturesRateHelper(H23,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J23" s="33" t="str">
+      <c r="J23" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I23)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K23" s="11"/>
       <c r="L23" s="46"/>
@@ -19841,9 +19839,9 @@
         <f>_xll.qlFuturesRateHelper(H24,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J24" s="33" t="str">
+      <c r="J24" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I24)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K24" s="11"/>
       <c r="L24" s="46"/>
@@ -19879,9 +19877,9 @@
         <f>_xll.qlFuturesRateHelper(H25,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J25" s="33" t="str">
+      <c r="J25" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I25)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K25" s="11"/>
       <c r="L25" s="46"/>
@@ -19917,9 +19915,9 @@
         <f>_xll.qlFuturesRateHelper(H26,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J26" s="33" t="str">
+      <c r="J26" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I26)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K26" s="11"/>
       <c r="L26" s="46"/>
@@ -19955,9 +19953,9 @@
         <f>_xll.qlFuturesRateHelper(H27,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J27" s="33" t="str">
+      <c r="J27" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I27)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="46"/>
@@ -19993,9 +19991,9 @@
         <f>_xll.qlFuturesRateHelper(H28,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J28" s="33" t="str">
+      <c r="J28" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I28)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K28" s="11"/>
       <c r="L28" s="46"/>
@@ -20031,9 +20029,9 @@
         <f>_xll.qlFuturesRateHelper(H29,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J29" s="33" t="str">
+      <c r="J29" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I29)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K29" s="11"/>
       <c r="L29" s="46"/>
@@ -20069,9 +20067,9 @@
         <f>_xll.qlFuturesRateHelper(H30,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J30" s="33" t="str">
+      <c r="J30" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I30)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K30" s="11"/>
       <c r="L30" s="46"/>
@@ -20107,9 +20105,9 @@
         <f>_xll.qlFuturesRateHelper(H31,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J31" s="33" t="str">
+      <c r="J31" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I31)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K31" s="11"/>
       <c r="L31" s="46"/>
@@ -20145,9 +20143,9 @@
         <f>_xll.qlFuturesRateHelper(H32,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J32" s="33" t="str">
+      <c r="J32" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I32)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K32" s="11"/>
       <c r="L32" s="46"/>
@@ -20183,9 +20181,9 @@
         <f>_xll.qlFuturesRateHelper(H33,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J33" s="33" t="str">
+      <c r="J33" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I33)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K33" s="11"/>
       <c r="L33" s="46"/>
@@ -20221,9 +20219,9 @@
         <f>_xll.qlFuturesRateHelper(H34,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J34" s="33" t="str">
+      <c r="J34" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I34)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K34" s="11"/>
       <c r="L34" s="46"/>
@@ -20259,9 +20257,9 @@
         <f>_xll.qlFuturesRateHelper(H35,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J35" s="33" t="str">
+      <c r="J35" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I35)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K35" s="11"/>
       <c r="L35" s="46"/>
@@ -20297,9 +20295,9 @@
         <f>_xll.qlFuturesRateHelper(H36,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J36" s="33" t="str">
+      <c r="J36" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I36)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K36" s="11"/>
       <c r="L36" s="46"/>
@@ -20335,9 +20333,9 @@
         <f>_xll.qlFuturesRateHelper(H37,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J37" s="33" t="str">
+      <c r="J37" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I37)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K37" s="11"/>
       <c r="L37" s="46"/>
@@ -20373,9 +20371,9 @@
         <f>_xll.qlFuturesRateHelper(H38,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J38" s="33" t="str">
+      <c r="J38" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I38)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K38" s="11"/>
       <c r="L38" s="46"/>
@@ -20411,9 +20409,9 @@
         <f>_xll.qlFuturesRateHelper(H39,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J39" s="33" t="str">
+      <c r="J39" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I39)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K39" s="11"/>
       <c r="L39" s="46"/>
@@ -20449,9 +20447,9 @@
         <f>_xll.qlFuturesRateHelper(H40,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J40" s="33" t="str">
+      <c r="J40" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I40)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K40" s="11"/>
     </row>
@@ -20486,9 +20484,9 @@
         <f>_xll.qlFuturesRateHelper(H41,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J41" s="33" t="str">
+      <c r="J41" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I41)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K41" s="11"/>
     </row>
@@ -20523,9 +20521,9 @@
         <f>_xll.qlFuturesRateHelper(H42,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J42" s="33" t="str">
+      <c r="J42" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I42)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K42" s="11"/>
     </row>
@@ -20560,9 +20558,9 @@
         <f>_xll.qlFuturesRateHelper(H43,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J43" s="33" t="str">
+      <c r="J43" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I43)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K43" s="11"/>
     </row>
@@ -20597,9 +20595,9 @@
         <f>_xll.qlFuturesRateHelper(H44,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J44" s="33" t="str">
+      <c r="J44" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I44)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K44" s="11"/>
     </row>
@@ -20634,9 +20632,9 @@
         <f>_xll.qlFuturesRateHelper(H45,$F45,$D45,$E45,$G45,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J45" s="33" t="str">
+      <c r="J45" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I45)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K45" s="11"/>
     </row>
@@ -20671,9 +20669,9 @@
         <f>_xll.qlFuturesRateHelper(H46,$F46,$D46,$E46,$G46,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J46" s="33" t="str">
+      <c r="J46" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I46)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K46" s="11"/>
     </row>
@@ -20708,9 +20706,9 @@
         <f>_xll.qlFuturesRateHelper(H47,$F47,$D47,$E47,$G47,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J47" s="33" t="str">
+      <c r="J47" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I47)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K47" s="11"/>
     </row>
@@ -20745,9 +20743,9 @@
         <f>_xll.qlFuturesRateHelper(H48,$F48,$D48,$E48,$G48,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J48" s="33" t="str">
+      <c r="J48" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I48)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K48" s="11"/>
     </row>
@@ -20782,9 +20780,9 @@
         <f>_xll.qlFuturesRateHelper(H49,$F49,$D49,$E49,$G49,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J49" s="33" t="str">
+      <c r="J49" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I49)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K49" s="11"/>
     </row>
@@ -20819,9 +20817,9 @@
         <f>_xll.qlFuturesRateHelper(H50,$F50,$D50,$E50,$G50,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J50" s="33" t="str">
+      <c r="J50" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I50)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K50" s="11"/>
     </row>
@@ -20856,9 +20854,9 @@
         <f>_xll.qlFuturesRateHelper(H51,$F51,$D51,$E51,$G51,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J51" s="33" t="str">
+      <c r="J51" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I51)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K51" s="11"/>
     </row>
@@ -20893,9 +20891,9 @@
         <f>_xll.qlFuturesRateHelper(H52,$F52,$D52,$E52,$G52,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J52" s="33" t="str">
+      <c r="J52" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I52)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K52" s="11"/>
     </row>
@@ -20930,9 +20928,9 @@
         <f>_xll.qlFuturesRateHelper(H53,$F53,$D53,$E53,$G53,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J53" s="33" t="str">
+      <c r="J53" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I53)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K53" s="11"/>
     </row>
@@ -20967,9 +20965,9 @@
         <f>_xll.qlFuturesRateHelper(H54,$F54,$D54,$E54,$G54,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J54" s="33" t="str">
+      <c r="J54" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I54)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K54" s="11"/>
     </row>
@@ -21004,9 +21002,9 @@
         <f>_xll.qlFuturesRateHelper(H55,$F55,$D55,$E55,$G55,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J55" s="33" t="str">
+      <c r="J55" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I55)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K55" s="11"/>
     </row>
@@ -21041,9 +21039,9 @@
         <f>_xll.qlFuturesRateHelper(H56,$F56,$D56,$E56,$G56,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J56" s="33" t="str">
+      <c r="J56" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I56)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K56" s="11"/>
     </row>
@@ -21078,9 +21076,9 @@
         <f>_xll.qlFuturesRateHelper(H57,$F57,$D57,$E57,$G57,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J57" s="33" t="str">
+      <c r="J57" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I57)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K57" s="11"/>
     </row>
@@ -21115,9 +21113,9 @@
         <f>_xll.qlFuturesRateHelper(H58,$F58,$D58,$E58,$G58,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J58" s="33" t="str">
+      <c r="J58" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I58)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K58" s="11"/>
     </row>
@@ -21152,9 +21150,9 @@
         <f>_xll.qlFuturesRateHelper(H59,$F59,$D59,$E59,$G59,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J59" s="33" t="str">
+      <c r="J59" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I59)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K59" s="11"/>
     </row>
@@ -21189,9 +21187,9 @@
         <f>_xll.qlFuturesRateHelper(H60,$F60,$D60,$E60,$G60,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J60" s="33" t="str">
+      <c r="J60" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I60)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K60" s="11"/>
     </row>
@@ -21226,9 +21224,9 @@
         <f>_xll.qlFuturesRateHelper(H61,$F61,$D61,$E61,$G61,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J61" s="33" t="str">
+      <c r="J61" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I61)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K61" s="11"/>
     </row>
@@ -21263,9 +21261,9 @@
         <f>_xll.qlFuturesRateHelper(H62,$F62,$D62,$E62,$G62,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J62" s="33" t="str">
+      <c r="J62" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I62)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K62" s="11"/>
     </row>
@@ -21300,9 +21298,9 @@
         <f>_xll.qlFuturesRateHelper(H63,$F63,$D63,$E63,$G63,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J63" s="33" t="str">
+      <c r="J63" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I63)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K63" s="11"/>
     </row>
@@ -21337,9 +21335,9 @@
         <f>_xll.qlFuturesRateHelper(H64,$F64,$D64,$E64,$G64,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J64" s="33" t="str">
+      <c r="J64" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I64)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K64" s="11"/>
     </row>
@@ -21374,9 +21372,9 @@
         <f>_xll.qlFuturesRateHelper(H65,$F65,$D65,$E65,$G65,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J65" s="33" t="str">
+      <c r="J65" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I65)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K65" s="11"/>
     </row>
@@ -21411,9 +21409,9 @@
         <f>_xll.qlFuturesRateHelper(H66,$F66,$D66,$E66,$G66,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J66" s="33" t="str">
+      <c r="J66" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I66)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K66" s="11"/>
     </row>
@@ -21448,9 +21446,9 @@
         <f>_xll.qlFuturesRateHelper(H67,$F67,$D67,$E67,$G67,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J67" s="33" t="str">
+      <c r="J67" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I67)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K67" s="11"/>
     </row>
@@ -21485,9 +21483,9 @@
         <f>_xll.qlFuturesRateHelper(H68,$F68,$D68,$E68,$G68,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J68" s="33" t="str">
+      <c r="J68" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I68)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K68" s="11"/>
     </row>
@@ -21522,9 +21520,9 @@
         <f>_xll.qlFuturesRateHelper(H69,$F69,$D69,$E69,$G69,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J69" s="33" t="str">
+      <c r="J69" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I69)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K69" s="11"/>
     </row>
@@ -21559,9 +21557,9 @@
         <f>_xll.qlFuturesRateHelper(H70,$F70,$D70,$E70,$G70,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J70" s="33" t="str">
+      <c r="J70" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I70)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K70" s="11"/>
     </row>
@@ -21596,9 +21594,9 @@
         <f>_xll.qlFuturesRateHelper(H71,$F71,$D71,$E71,$G71,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J71" s="33" t="str">
+      <c r="J71" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I71)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K71" s="11"/>
     </row>
@@ -21633,9 +21631,9 @@
         <f>_xll.qlFuturesRateHelper(H72,$F72,$D72,$E72,$G72,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J72" s="33" t="str">
+      <c r="J72" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I72)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K72" s="11"/>
     </row>
@@ -21670,9 +21668,9 @@
         <f>_xll.qlFuturesRateHelper(H73,$F73,$D73,$E73,$G73,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J73" s="33" t="str">
+      <c r="J73" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I73)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K73" s="11"/>
     </row>
@@ -21707,9 +21705,9 @@
         <f>_xll.qlFuturesRateHelper(H74,$F74,$D74,$E74,$G74,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J74" s="33" t="str">
+      <c r="J74" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I74)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K74" s="11"/>
     </row>
@@ -21744,9 +21742,9 @@
         <f>_xll.qlFuturesRateHelper(H75,$F75,$D75,$E75,$G75,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J75" s="33" t="str">
+      <c r="J75" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I75)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K75" s="11"/>
     </row>
@@ -21781,9 +21779,9 @@
         <f>_xll.qlFuturesRateHelper(H76,$F76,$D76,$E76,$G76,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J76" s="33" t="str">
+      <c r="J76" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I76)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K76" s="11"/>
     </row>
@@ -21818,9 +21816,9 @@
         <f>_xll.qlFuturesRateHelper(H77,$F77,$D77,$E77,$G77,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J77" s="33" t="str">
+      <c r="J77" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I77)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K77" s="11"/>
     </row>
@@ -21855,9 +21853,9 @@
         <f>_xll.qlFuturesRateHelper(H78,$F78,$D78,$E78,$G78,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J78" s="33" t="str">
+      <c r="J78" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I78)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K78" s="11"/>
     </row>
@@ -21892,9 +21890,9 @@
         <f>_xll.qlFuturesRateHelper(H79,$F79,$D79,$E79,$G79,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J79" s="33" t="str">
+      <c r="J79" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I79)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K79" s="11"/>
     </row>
@@ -21929,9 +21927,9 @@
         <f>_xll.qlFuturesRateHelper(H80,$F80,$D80,$E80,$G80,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J80" s="33" t="str">
+      <c r="J80" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I80)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K80" s="11"/>
     </row>
@@ -21966,9 +21964,9 @@
         <f>_xll.qlFuturesRateHelper(H81,$F81,$D81,$E81,$G81,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J81" s="33" t="str">
+      <c r="J81" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I81)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K81" s="11"/>
     </row>
@@ -22003,9 +22001,9 @@
         <f>_xll.qlFuturesRateHelper(H82,$F82,$D82,$E82,$G82,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J82" s="33" t="str">
+      <c r="J82" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I82)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K82" s="11"/>
     </row>
@@ -22040,9 +22038,9 @@
         <f>_xll.qlFuturesRateHelper(H83,$F83,$D83,$E83,$G83,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J83" s="33" t="str">
+      <c r="J83" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I83)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K83" s="11"/>
     </row>
@@ -22077,9 +22075,9 @@
         <f>_xll.qlFuturesRateHelper(H84,$F84,$D84,$E84,$G84,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J84" s="33" t="str">
+      <c r="J84" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I84)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K84" s="11"/>
     </row>
@@ -22114,9 +22112,9 @@
         <f>_xll.qlFuturesRateHelper(H85,$F85,$D85,$E85,$G85,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J85" s="33" t="str">
+      <c r="J85" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I85)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K85" s="11"/>
     </row>
@@ -22151,9 +22149,9 @@
         <f>_xll.qlFuturesRateHelper(H86,$F86,$D86,$E86,$G86,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J86" s="33" t="str">
+      <c r="J86" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I86)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K86" s="11"/>
     </row>
@@ -22188,9 +22186,9 @@
         <f>_xll.qlFuturesRateHelper(H87,$F87,$D87,$E87,$G87,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J87" s="33" t="str">
+      <c r="J87" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I87)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K87" s="11"/>
     </row>
@@ -22225,9 +22223,9 @@
         <f>_xll.qlFuturesRateHelper(H88,$F88,$D88,$E88,$G88,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J88" s="33" t="str">
+      <c r="J88" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I88)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K88" s="11"/>
     </row>
@@ -22262,9 +22260,9 @@
         <f>_xll.qlFuturesRateHelper(H89,$F89,$D89,$E89,$G89,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J89" s="33" t="str">
+      <c r="J89" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I89)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K89" s="11"/>
     </row>
@@ -22299,9 +22297,9 @@
         <f>_xll.qlFuturesRateHelper(H90,$F90,$D90,$E90,$G90,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J90" s="33" t="str">
+      <c r="J90" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I90)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K90" s="11"/>
     </row>
@@ -22336,9 +22334,9 @@
         <f>_xll.qlFuturesRateHelper(H91,$F91,$D91,$E91,$G91,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J91" s="33" t="str">
+      <c r="J91" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I91)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K91" s="11"/>
     </row>
@@ -22373,9 +22371,9 @@
         <f>_xll.qlFuturesRateHelper(H92,$F92,$D92,$E92,$G92,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J92" s="33" t="str">
+      <c r="J92" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I92)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K92" s="11"/>
     </row>
@@ -22410,9 +22408,9 @@
         <f>_xll.qlFuturesRateHelper(H93,$F93,$D93,$E93,$G93,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J93" s="33" t="str">
+      <c r="J93" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I93)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K93" s="11"/>
     </row>
@@ -22447,9 +22445,9 @@
         <f>_xll.qlFuturesRateHelper(H94,$F94,$D94,$E94,$G94,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J94" s="33" t="str">
+      <c r="J94" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I94)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K94" s="11"/>
     </row>
@@ -22484,9 +22482,9 @@
         <f>_xll.qlFuturesRateHelper(H95,$F95,$D95,$E95,$G95,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J95" s="33" t="str">
+      <c r="J95" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I95)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K95" s="11"/>
     </row>
@@ -22521,9 +22519,9 @@
         <f>_xll.qlFuturesRateHelper(H96,$F96,$D96,$E96,$G96,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J96" s="33" t="str">
+      <c r="J96" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I96)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K96" s="11"/>
     </row>
@@ -22558,9 +22556,9 @@
         <f>_xll.qlFuturesRateHelper(H97,$F97,$D97,$E97,$G97,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J97" s="33" t="str">
+      <c r="J97" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I97)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K97" s="11"/>
     </row>
@@ -22595,9 +22593,9 @@
         <f>_xll.qlFuturesRateHelper(H98,$F98,$D98,$E98,$G98,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J98" s="33" t="str">
+      <c r="J98" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I98)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K98" s="11"/>
     </row>
@@ -22632,9 +22630,9 @@
         <f>_xll.qlFuturesRateHelper(H99,$F99,$D99,$E99,$G99,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J99" s="33" t="str">
+      <c r="J99" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I99)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K99" s="11"/>
     </row>
@@ -22669,9 +22667,9 @@
         <f>_xll.qlFuturesRateHelper(H100,$F100,$D100,$E100,$G100,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J100" s="33" t="str">
+      <c r="J100" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I100)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K100" s="11"/>
     </row>
@@ -22706,9 +22704,9 @@
         <f>_xll.qlFuturesRateHelper(H101,$F101,$D101,$E101,$G101,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J101" s="33" t="str">
+      <c r="J101" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I101)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K101" s="11"/>
     </row>
@@ -22743,9 +22741,9 @@
         <f>_xll.qlFuturesRateHelper(H102,$F102,$D102,$E102,$G102,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J102" s="33" t="str">
+      <c r="J102" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I102)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K102" s="11"/>
     </row>
@@ -22780,9 +22778,9 @@
         <f>_xll.qlFuturesRateHelper(H103,$F103,$D103,$E103,$G103,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J103" s="33" t="str">
+      <c r="J103" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I103)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K103" s="11"/>
     </row>
@@ -22817,9 +22815,9 @@
         <f>_xll.qlFuturesRateHelper(H104,$F104,$D104,$E104,$G104,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J104" s="33" t="str">
+      <c r="J104" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I104)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K104" s="11"/>
     </row>
@@ -22854,9 +22852,9 @@
         <f>_xll.qlFuturesRateHelper(H105,$F105,$D105,$E105,$G105,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J105" s="33" t="str">
+      <c r="J105" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I105)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K105" s="11"/>
     </row>
@@ -22891,9 +22889,9 @@
         <f>_xll.qlFuturesRateHelper(H106,$F106,$D106,$E106,$G106,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J106" s="33" t="str">
+      <c r="J106" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I106)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K106" s="11"/>
     </row>
@@ -22928,9 +22926,9 @@
         <f>_xll.qlFuturesRateHelper(H107,$F107,$D107,$E107,$G107,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J107" s="33" t="str">
+      <c r="J107" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I107)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K107" s="11"/>
     </row>
@@ -22965,9 +22963,9 @@
         <f>_xll.qlFuturesRateHelper(H108,$F108,$D108,$E108,$G108,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J108" s="33" t="str">
+      <c r="J108" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I108)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K108" s="11"/>
     </row>
@@ -23002,9 +23000,9 @@
         <f>_xll.qlFuturesRateHelper(H109,$F109,$D109,$E109,$G109,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J109" s="33" t="str">
+      <c r="J109" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I109)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K109" s="11"/>
     </row>
@@ -23039,9 +23037,9 @@
         <f>_xll.qlFuturesRateHelper(H110,$F110,$D110,$E110,$G110,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J110" s="33" t="str">
+      <c r="J110" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I110)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K110" s="11"/>
     </row>
@@ -23076,9 +23074,9 @@
         <f>_xll.qlFuturesRateHelper(H111,$F111,$D111,$E111,$G111,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J111" s="33" t="str">
+      <c r="J111" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I111)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K111" s="11"/>
     </row>
@@ -23113,9 +23111,9 @@
         <f>_xll.qlFuturesRateHelper(H112,$F112,$D112,$E112,$G112,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J112" s="33" t="str">
+      <c r="J112" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I112)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K112" s="11"/>
     </row>
@@ -23150,9 +23148,9 @@
         <f>_xll.qlFuturesRateHelper(H113,$F113,$D113,$E113,$G113,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J113" s="33" t="str">
+      <c r="J113" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I113)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K113" s="11"/>
     </row>
@@ -23187,9 +23185,9 @@
         <f>_xll.qlFuturesRateHelper(H114,$F114,$D114,$E114,$G114,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J114" s="33" t="str">
+      <c r="J114" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I114)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K114" s="11"/>
     </row>
@@ -23224,9 +23222,9 @@
         <f>_xll.qlFuturesRateHelper(H115,$F115,$D115,$E115,$G115,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J115" s="33" t="str">
+      <c r="J115" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I115)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K115" s="11"/>
     </row>
@@ -23261,9 +23259,9 @@
         <f>_xll.qlFuturesRateHelper(H116,$F116,$D116,$E116,$G116,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J116" s="33" t="str">
+      <c r="J116" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I116)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K116" s="11"/>
     </row>
@@ -23298,9 +23296,9 @@
         <f>_xll.qlFuturesRateHelper(H117,$F117,$D117,$E117,$G117,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J117" s="33" t="str">
+      <c r="J117" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I117)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K117" s="11"/>
     </row>
@@ -23335,9 +23333,9 @@
         <f>_xll.qlFuturesRateHelper(H118,$F118,$D118,$E118,$G118,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J118" s="33" t="str">
+      <c r="J118" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I118)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K118" s="11"/>
     </row>
@@ -23372,9 +23370,9 @@
         <f>_xll.qlFuturesRateHelper(H119,$F119,$D119,$E119,$G119,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J119" s="33" t="str">
+      <c r="J119" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I119)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K119" s="11"/>
     </row>
@@ -23409,9 +23407,9 @@
         <f>_xll.qlFuturesRateHelper(H120,$F120,$D120,$E120,$G120,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J120" s="33" t="str">
+      <c r="J120" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I120)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K120" s="11"/>
     </row>
@@ -23446,9 +23444,9 @@
         <f>_xll.qlFuturesRateHelper(H121,$F121,$D121,$E121,$G121,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J121" s="33" t="str">
+      <c r="J121" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I121)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K121" s="11"/>
     </row>
@@ -23483,9 +23481,9 @@
         <f>_xll.qlFuturesRateHelper(H122,$F122,$D122,$E122,$G122,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J122" s="33" t="str">
+      <c r="J122" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I122)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K122" s="11"/>
     </row>
@@ -23578,12 +23576,12 @@
         <v>EUR_YC3M-MxRH_Futures3M.xml</v>
       </c>
       <c r="I2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K2" s="11"/>
     </row>
@@ -28151,12 +28149,12 @@
         <v>EUR_YC6M-MxRH_IMMFRA6M.xml</v>
       </c>
       <c r="H2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(H3:H122,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H122,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="J2" s="11"/>
     </row>
